--- a/reque/SMS_Gateway_Requirements_20171110.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171110.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="720" windowWidth="15120" windowHeight="6810" tabRatio="886" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="720" windowWidth="15120" windowHeight="6810" tabRatio="886" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="31" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="807">
   <si>
     <t>No.</t>
   </si>
@@ -2048,9 +2048,6 @@
     <t>System settings</t>
   </si>
   <si>
-    <t>Cập nhật mô tả kết nối API cho khách hàng</t>
-  </si>
-  <si>
     <t>Sử dụng phần mềm CDM20828 theo Id của tài khoản admin</t>
   </si>
   <si>
@@ -2069,9 +2066,6 @@
     <t>time_check_connect</t>
   </si>
   <si>
-    <t>Số lượng tin max có thể gửi trong 1 lần kết nối tương ứng với mỗi Com</t>
-  </si>
-  <si>
     <t>Kết nối PC – Điện thoại Nokia 2730 qua cổng USB</t>
   </si>
   <si>
@@ -2127,9 +2121,6 @@
   </si>
   <si>
     <t>- Tìm kiếm: Theo khách hàng, thời gian, độ ưu tiên của khách hàng</t>
-  </si>
-  <si>
-    <t>Cập nhật mô tả kết nối API cho admin</t>
   </si>
   <si>
     <t>- Thêm mới tài khoản quản lý (admin, cán bộ quản lý, khách hàng)</t>
@@ -2480,6 +2471,79 @@
   <si>
     <t>Estimate
 (Mds)</t>
+  </si>
+  <si>
+    <t>Messenger center settings</t>
+  </si>
+  <si>
+    <t>Tài liệu API (Customer and Manager)</t>
+  </si>
+  <si>
+    <t>- Xem, sửa thông tin tích hợp API của manager
+- Xem, sửa thông tin tích hợp API của Customer</t>
+  </si>
+  <si>
+    <t>Chi phí/ 1 SMS</t>
+  </si>
+  <si>
+    <t>api_manager_en</t>
+  </si>
+  <si>
+    <t>api_customer_en</t>
+  </si>
+  <si>
+    <t>system_content_en</t>
+  </si>
+  <si>
+    <t>Thông báo từ hệ thống (Tiếng anh)</t>
+  </si>
+  <si>
+    <t>Nội dung mô tả kết nội API của khách hàng  (Tiếng anh)</t>
+  </si>
+  <si>
+    <t>Nội dung mô tả kết nội API của admin  (Tiếng anh)</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>vachar</t>
+  </si>
+  <si>
+    <t>menu "Cài hệ thống"</t>
+  </si>
+  <si>
+    <t>menu "Tài liệu API"</t>
+  </si>
+  <si>
+    <t>menu "Tích hợp API"</t>
+  </si>
+  <si>
+    <t>menu "Tích hợp API" =&gt; để hiển thị trên màn hình Admin</t>
+  </si>
+  <si>
+    <t>menu "Tài liệu API" =&gt; để hiển thị trên màn hình Customer</t>
+  </si>
+  <si>
+    <t>menu "Bảng điều khiển"</t>
+  </si>
+  <si>
+    <t>Số lượng tin max có thể gửi trong 1 ngày tương ứng với mỗi Com</t>
+  </si>
+  <si>
+    <t>sms_carrier_cost</t>
+  </si>
+  <si>
+    <t>Lưu theo: id nhà mạng - chi phí/sms,id nhà mạng - chi phí/sms,…</t>
+  </si>
+  <si>
+    <t>Hình thức thanh toán: 1 - Thanh toán trực tiếp; 2 - Thanh toán sau</t>
+  </si>
+  <si>
+    <t>Cài đặt chi phí 1 SMS tương ứng với từng nhà mạng (Trừ vào tài khoản khi gửi SMS thành công)</t>
+  </si>
+  <si>
+    <t>Cài đặt chi phí 1 SMS tương ứng với từng nhà mạng (cộng vào tài khoản khi gửi SMS thành công)</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2727,7 @@
     <numFmt numFmtId="330" formatCode="0.00_ "/>
     <numFmt numFmtId="331" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="264">
+  <fonts count="265">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4278,6 +4342,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="60">
     <fill>
@@ -17932,7 +18002,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -18213,15 +18283,6 @@
     <xf numFmtId="0" fontId="262" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="59" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18243,16 +18304,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18352,6 +18407,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18376,13 +18457,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="261" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="261" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="261" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18400,7 +18481,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18412,7 +18499,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18430,12 +18517,6 @@
     <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18444,12 +18525,6 @@
     </xf>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5341">
@@ -24178,10 +24253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25"/>
@@ -24202,25 +24277,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="162" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="165" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160" t="s">
+      <c r="G1" s="165"/>
+      <c r="H1" s="165" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160" t="s">
+      <c r="I1" s="165"/>
+      <c r="J1" s="165" t="s">
         <v>657</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160" t="s">
+      <c r="K1" s="165"/>
+      <c r="L1" s="165" t="s">
         <v>428</v>
       </c>
     </row>
@@ -24256,7 +24331,7 @@
       <c r="K2" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="L2" s="160"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="11"/>
@@ -24353,11 +24428,11 @@
       <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="161" t="s">
         <v>482</v>
       </c>
-      <c r="D6" s="120" t="s">
-        <v>704</v>
+      <c r="D6" s="115" t="s">
+        <v>701</v>
       </c>
       <c r="E6" s="49">
         <v>3</v>
@@ -24383,9 +24458,9 @@
       <c r="B7" s="50">
         <v>5</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="120" t="s">
-        <v>705</v>
+      <c r="C7" s="160"/>
+      <c r="D7" s="115" t="s">
+        <v>702</v>
       </c>
       <c r="E7" s="48">
         <v>3</v>
@@ -24411,9 +24486,9 @@
       <c r="B8" s="50">
         <v>6</v>
       </c>
-      <c r="C8" s="155"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="78" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E8" s="48">
         <v>4</v>
@@ -24437,15 +24512,25 @@
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="11"/>
       <c r="B9" s="79"/>
-      <c r="C9" s="155"/>
+      <c r="C9" s="160"/>
       <c r="D9" s="78" t="s">
-        <v>775</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+        <v>783</v>
+      </c>
+      <c r="E9" s="48">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>9</v>
+      </c>
+      <c r="G9" s="12">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13">
+        <v>12</v>
+      </c>
+      <c r="I9" s="13">
+        <v>11</v>
+      </c>
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="88"/>
@@ -24455,9 +24540,9 @@
       <c r="B10" s="50">
         <v>7</v>
       </c>
-      <c r="C10" s="155"/>
-      <c r="D10" s="120" t="s">
-        <v>676</v>
+      <c r="C10" s="160"/>
+      <c r="D10" s="115" t="s">
+        <v>674</v>
       </c>
       <c r="E10" s="48">
         <v>3</v>
@@ -24483,7 +24568,7 @@
       <c r="B11" s="50">
         <v>8</v>
       </c>
-      <c r="C11" s="156" t="s">
+      <c r="C11" s="161" t="s">
         <v>484</v>
       </c>
       <c r="D11" s="82" t="s">
@@ -24513,7 +24598,7 @@
       <c r="B12" s="50">
         <v>9</v>
       </c>
-      <c r="C12" s="155"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="76" t="s">
         <v>661</v>
       </c>
@@ -24541,7 +24626,7 @@
       <c r="B13" s="50">
         <v>10</v>
       </c>
-      <c r="C13" s="155"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="82" t="s">
         <v>635</v>
       </c>
@@ -24569,7 +24654,7 @@
       <c r="B14" s="50">
         <v>11</v>
       </c>
-      <c r="C14" s="155"/>
+      <c r="C14" s="160"/>
       <c r="D14" s="76" t="s">
         <v>636</v>
       </c>
@@ -24597,7 +24682,7 @@
       <c r="B15" s="50">
         <v>12</v>
       </c>
-      <c r="C15" s="155"/>
+      <c r="C15" s="160"/>
       <c r="D15" s="75" t="s">
         <v>558</v>
       </c>
@@ -24625,7 +24710,7 @@
       <c r="B16" s="50">
         <v>13</v>
       </c>
-      <c r="C16" s="155"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="75" t="s">
         <v>559</v>
       </c>
@@ -24652,17 +24737,27 @@
       <c r="B17" s="50">
         <v>14</v>
       </c>
-      <c r="C17" s="155"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
+        <v>673</v>
+      </c>
+      <c r="E17" s="49">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>27</v>
+      </c>
+      <c r="G17" s="12">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13">
+        <v>3</v>
+      </c>
+      <c r="I17" s="13">
+        <v>12</v>
+      </c>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
       <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12" s="14" customFormat="1">
@@ -24670,9 +24765,9 @@
       <c r="B18" s="50">
         <v>15</v>
       </c>
-      <c r="C18" s="155"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="93" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E18" s="48">
         <v>4</v>
@@ -24698,9 +24793,9 @@
       <c r="B19" s="50">
         <v>16</v>
       </c>
-      <c r="C19" s="155"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="93" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E19" s="48">
         <v>4</v>
@@ -24726,7 +24821,7 @@
       <c r="B20" s="50">
         <v>17</v>
       </c>
-      <c r="C20" s="155"/>
+      <c r="C20" s="160"/>
       <c r="D20" s="75" t="s">
         <v>575</v>
       </c>
@@ -24754,7 +24849,7 @@
       <c r="B21" s="50">
         <v>18</v>
       </c>
-      <c r="C21" s="155"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="75" t="s">
         <v>576</v>
       </c>
@@ -24782,7 +24877,7 @@
       <c r="B22" s="50">
         <v>19</v>
       </c>
-      <c r="C22" s="155"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="75" t="s">
         <v>577</v>
       </c>
@@ -24810,7 +24905,7 @@
       <c r="B23" s="50">
         <v>20</v>
       </c>
-      <c r="C23" s="155"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="75" t="s">
         <v>578</v>
       </c>
@@ -24838,7 +24933,7 @@
       <c r="B24" s="50">
         <v>21</v>
       </c>
-      <c r="C24" s="155"/>
+      <c r="C24" s="160"/>
       <c r="D24" s="75" t="s">
         <v>579</v>
       </c>
@@ -24861,13 +24956,12 @@
       <c r="K24" s="47"/>
       <c r="L24" s="18"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="B25" s="50">
-        <v>22</v>
-      </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="118" t="s">
-        <v>734</v>
+    <row r="25" spans="1:12" s="14" customFormat="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="148" t="s">
+        <v>731</v>
       </c>
       <c r="E25" s="48">
         <v>11</v>
@@ -24884,34 +24978,32 @@
       <c r="I25" s="13">
         <v>12</v>
       </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="18"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="88"/>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="50">
-        <v>23</v>
-      </c>
-      <c r="C26" s="156" t="s">
-        <v>483</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="E26" s="49">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="148" t="s">
+        <v>784</v>
+      </c>
+      <c r="E26" s="48">
+        <v>11</v>
       </c>
       <c r="F26" s="12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G26" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H26" s="13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I26" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J26" s="47"/>
       <c r="K26" s="47"/>
@@ -24919,11 +25011,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="50">
-        <v>24</v>
-      </c>
-      <c r="C27" s="155"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>483</v>
+      </c>
       <c r="D27" s="78" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="E27" s="49">
         <v>2</v>
@@ -24946,23 +25040,23 @@
     </row>
     <row r="28" spans="1:12">
       <c r="B28" s="50">
-        <v>25</v>
-      </c>
-      <c r="C28" s="155"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="160"/>
       <c r="D28" s="78" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E28" s="49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="12">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G28" s="12">
         <v>11</v>
       </c>
       <c r="H28" s="13">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="13">
         <v>11</v>
@@ -24973,26 +25067,26 @@
     </row>
     <row r="29" spans="1:12">
       <c r="B29" s="50">
-        <v>26</v>
-      </c>
-      <c r="C29" s="155"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="160"/>
       <c r="D29" s="78" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="E29" s="49">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
         <v>18</v>
       </c>
       <c r="G29" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I29" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
@@ -25000,23 +25094,23 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="50">
-        <v>27</v>
-      </c>
-      <c r="C30" s="155"/>
-      <c r="D30" s="75" t="s">
-        <v>558</v>
+        <v>26</v>
+      </c>
+      <c r="C30" s="160"/>
+      <c r="D30" s="78" t="s">
+        <v>489</v>
       </c>
       <c r="E30" s="49">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F30" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G30" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H30" s="13">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I30" s="13">
         <v>12</v>
@@ -25027,55 +25121,65 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="50">
-        <v>28</v>
-      </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="101" t="s">
-        <v>675</v>
-      </c>
-      <c r="E31" s="70"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="88"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="160"/>
+      <c r="D31" s="75" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" s="49">
+        <v>5</v>
+      </c>
+      <c r="F31" s="12">
+        <v>27</v>
+      </c>
+      <c r="G31" s="12">
+        <v>11</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3</v>
+      </c>
+      <c r="I31" s="13">
+        <v>12</v>
+      </c>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12">
       <c r="B32" s="50">
-        <v>29</v>
-      </c>
-      <c r="C32" s="155"/>
-      <c r="D32" s="75" t="s">
-        <v>575</v>
+        <v>28</v>
+      </c>
+      <c r="C32" s="160"/>
+      <c r="D32" s="101" t="s">
+        <v>673</v>
       </c>
       <c r="E32" s="49">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" s="12">
+        <v>27</v>
+      </c>
+      <c r="G32" s="12">
         <v>11</v>
       </c>
-      <c r="G32" s="12">
-        <v>12</v>
-      </c>
       <c r="H32" s="13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I32" s="13">
         <v>12</v>
       </c>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="18"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="88"/>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="50">
-        <v>30</v>
-      </c>
-      <c r="C33" s="155"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="160"/>
       <c r="D33" s="75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E33" s="49">
         <v>8</v>
@@ -25098,11 +25202,11 @@
     </row>
     <row r="34" spans="2:12">
       <c r="B34" s="50">
-        <v>31</v>
-      </c>
-      <c r="C34" s="155"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="160"/>
       <c r="D34" s="75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E34" s="49">
         <v>8</v>
@@ -25125,11 +25229,11 @@
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="50">
-        <v>32</v>
-      </c>
-      <c r="C35" s="155"/>
+        <v>31</v>
+      </c>
+      <c r="C35" s="160"/>
       <c r="D35" s="75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E35" s="49">
         <v>8</v>
@@ -25152,11 +25256,11 @@
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="50">
-        <v>33</v>
-      </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="76" t="s">
-        <v>579</v>
+        <v>32</v>
+      </c>
+      <c r="C36" s="160"/>
+      <c r="D36" s="75" t="s">
+        <v>578</v>
       </c>
       <c r="E36" s="49">
         <v>8</v>
@@ -25179,23 +25283,23 @@
     </row>
     <row r="37" spans="2:12">
       <c r="B37" s="50">
-        <v>34</v>
-      </c>
-      <c r="C37" s="155"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="160"/>
       <c r="D37" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="E37" s="48">
+        <v>579</v>
+      </c>
+      <c r="E37" s="49">
+        <v>8</v>
+      </c>
+      <c r="F37" s="12">
         <v>11</v>
-      </c>
-      <c r="F37" s="12">
-        <v>18</v>
       </c>
       <c r="G37" s="12">
         <v>12</v>
       </c>
       <c r="H37" s="13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I37" s="13">
         <v>12</v>
@@ -25206,28 +25310,26 @@
     </row>
     <row r="38" spans="2:12">
       <c r="B38" s="50">
-        <v>35</v>
-      </c>
-      <c r="C38" s="154" t="s">
-        <v>485</v>
-      </c>
-      <c r="D38" s="78" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="49">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="C38" s="160"/>
+      <c r="D38" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E38" s="48">
+        <v>11</v>
       </c>
       <c r="F38" s="12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G38" s="12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H38" s="13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I38" s="13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="47"/>
       <c r="K38" s="47"/>
@@ -25235,11 +25337,13 @@
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="50">
-        <v>36</v>
-      </c>
-      <c r="C39" s="155"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="159" t="s">
+        <v>485</v>
+      </c>
       <c r="D39" s="78" t="s">
-        <v>425</v>
+        <v>506</v>
       </c>
       <c r="E39" s="49">
         <v>2</v>
@@ -25262,26 +25366,26 @@
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="50">
-        <v>37</v>
-      </c>
-      <c r="C40" s="155"/>
-      <c r="D40" s="93" t="s">
-        <v>673</v>
+        <v>36</v>
+      </c>
+      <c r="C40" s="160"/>
+      <c r="D40" s="78" t="s">
+        <v>425</v>
       </c>
       <c r="E40" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" s="12">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G40" s="12">
         <v>11</v>
       </c>
       <c r="H40" s="13">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I40" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J40" s="47"/>
       <c r="K40" s="47"/>
@@ -25289,11 +25393,11 @@
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="50">
-        <v>38</v>
-      </c>
-      <c r="C41" s="155"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="160"/>
       <c r="D41" s="93" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E41" s="49">
         <v>5</v>
@@ -25316,23 +25420,23 @@
     </row>
     <row r="42" spans="2:12">
       <c r="B42" s="50">
-        <v>39</v>
-      </c>
-      <c r="C42" s="155"/>
-      <c r="D42" s="75" t="s">
-        <v>575</v>
+        <v>38</v>
+      </c>
+      <c r="C42" s="160"/>
+      <c r="D42" s="93" t="s">
+        <v>672</v>
       </c>
       <c r="E42" s="49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F42" s="12">
+        <v>27</v>
+      </c>
+      <c r="G42" s="12">
         <v>11</v>
       </c>
-      <c r="G42" s="12">
-        <v>12</v>
-      </c>
       <c r="H42" s="13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I42" s="13">
         <v>12</v>
@@ -25343,11 +25447,11 @@
     </row>
     <row r="43" spans="2:12">
       <c r="B43" s="50">
-        <v>40</v>
-      </c>
-      <c r="C43" s="155"/>
+        <v>39</v>
+      </c>
+      <c r="C43" s="160"/>
       <c r="D43" s="75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E43" s="49">
         <v>9</v>
@@ -25370,11 +25474,11 @@
     </row>
     <row r="44" spans="2:12">
       <c r="B44" s="50">
-        <v>41</v>
-      </c>
-      <c r="C44" s="155"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="160"/>
       <c r="D44" s="75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E44" s="49">
         <v>9</v>
@@ -25397,11 +25501,11 @@
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="50">
-        <v>42</v>
-      </c>
-      <c r="C45" s="155"/>
+        <v>41</v>
+      </c>
+      <c r="C45" s="160"/>
       <c r="D45" s="75" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E45" s="49">
         <v>9</v>
@@ -25424,11 +25528,11 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="50">
-        <v>43</v>
-      </c>
-      <c r="C46" s="155"/>
-      <c r="D46" s="76" t="s">
-        <v>579</v>
+        <v>42</v>
+      </c>
+      <c r="C46" s="160"/>
+      <c r="D46" s="75" t="s">
+        <v>578</v>
       </c>
       <c r="E46" s="49">
         <v>9</v>
@@ -25445,49 +25549,47 @@
       <c r="I46" s="13">
         <v>12</v>
       </c>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="88"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="50">
-        <v>44</v>
-      </c>
-      <c r="C47" s="155"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="160"/>
       <c r="D47" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="E47" s="48">
+        <v>579</v>
+      </c>
+      <c r="E47" s="49">
+        <v>9</v>
+      </c>
+      <c r="F47" s="12">
         <v>11</v>
-      </c>
-      <c r="F47" s="12">
-        <v>18</v>
       </c>
       <c r="G47" s="12">
         <v>12</v>
       </c>
       <c r="H47" s="13">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I47" s="13">
         <v>12</v>
       </c>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="18"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="88"/>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="50">
-        <v>45</v>
-      </c>
-      <c r="C48" s="83" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>650</v>
-      </c>
-      <c r="E48" s="49">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C48" s="160"/>
+      <c r="D48" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E48" s="48">
+        <v>11</v>
       </c>
       <c r="F48" s="12">
         <v>18</v>
@@ -25507,16 +25609,16 @@
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="50">
-        <v>46</v>
-      </c>
-      <c r="C49" s="153" t="s">
-        <v>654</v>
-      </c>
-      <c r="D49" s="118" t="s">
-        <v>655</v>
+        <v>45</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>486</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>650</v>
       </c>
       <c r="E49" s="49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" s="12">
         <v>18</v>
@@ -25536,57 +25638,86 @@
     </row>
     <row r="50" spans="2:12">
       <c r="B50" s="50">
-        <v>47</v>
-      </c>
-      <c r="C50" s="153"/>
-      <c r="D50" s="75" t="s">
-        <v>652</v>
-      </c>
-      <c r="E50" s="70">
+        <v>46</v>
+      </c>
+      <c r="C50" s="158" t="s">
+        <v>654</v>
+      </c>
+      <c r="D50" s="114" t="s">
+        <v>655</v>
+      </c>
+      <c r="E50" s="49">
         <v>12</v>
       </c>
-      <c r="F50" s="85">
-        <v>25</v>
-      </c>
-      <c r="G50" s="85">
+      <c r="F50" s="12">
+        <v>18</v>
+      </c>
+      <c r="G50" s="12">
         <v>12</v>
       </c>
-      <c r="H50" s="86">
-        <v>31</v>
-      </c>
-      <c r="I50" s="86">
+      <c r="H50" s="13">
+        <v>24</v>
+      </c>
+      <c r="I50" s="13">
         <v>12</v>
       </c>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="88"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="18"/>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="50">
+        <v>47</v>
+      </c>
+      <c r="C51" s="158"/>
+      <c r="D51" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="E51" s="70">
+        <v>12</v>
+      </c>
+      <c r="F51" s="85">
+        <v>25</v>
+      </c>
+      <c r="G51" s="85">
+        <v>12</v>
+      </c>
+      <c r="H51" s="86">
+        <v>31</v>
+      </c>
+      <c r="I51" s="86">
+        <v>12</v>
+      </c>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="88"/>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="50">
         <v>48</v>
       </c>
-      <c r="C51" s="153"/>
-      <c r="D51" s="75" t="s">
+      <c r="C52" s="158"/>
+      <c r="D52" s="75" t="s">
         <v>653</v>
       </c>
-      <c r="E51" s="49">
+      <c r="E52" s="49">
         <v>12</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>1</v>
       </c>
-      <c r="G51" s="89" t="s">
+      <c r="G52" s="89" t="s">
         <v>658</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>1</v>
       </c>
-      <c r="I51" s="90" t="s">
+      <c r="I52" s="90" t="s">
         <v>658</v>
       </c>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="18"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -25595,11 +25726,11 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C38:C47"/>
-    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="C27:C38"/>
     <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C25"/>
+    <mergeCell ref="C11:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25608,11 +25739,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -25621,16 +25752,17 @@
     <col min="2" max="2" width="15.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="24" customWidth="1"/>
     <col min="4" max="4" width="55.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="19" style="23" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" style="68" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="73" customWidth="1"/>
-    <col min="8" max="10" width="10.28515625" style="73" customWidth="1"/>
-    <col min="11" max="11" width="38.5703125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="15" style="23" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="23"/>
+    <col min="5" max="5" width="16.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19" style="23" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="68" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="73" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" style="73" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="15" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -25644,99 +25776,105 @@
         <v>419</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F1" s="77" t="s">
+        <v>793</v>
+      </c>
+      <c r="G1" s="77" t="s">
         <v>460</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="H1" s="77" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="77" t="s">
+      <c r="I1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="77" t="s">
         <v>481</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="K1" s="45" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="94" t="s">
+      <c r="L1" s="94" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="52" customFormat="1" ht="31.5">
+    <row r="2" spans="1:12" s="52" customFormat="1" ht="31.5">
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="166" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="171" t="s">
+        <v>663</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>664</v>
       </c>
-      <c r="D2" s="63" t="s">
-        <v>665</v>
-      </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="166" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="171" t="s">
         <v>640</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="70"/>
+      <c r="I2" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="K2" s="52" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="52" customFormat="1">
+      <c r="L2" s="52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="52" customFormat="1">
       <c r="A3" s="95"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="168"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="63" t="s">
-        <v>670</v>
-      </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="70"/>
+        <v>668</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="173"/>
       <c r="H3" s="70"/>
-      <c r="I3" s="79"/>
+      <c r="I3" s="70"/>
       <c r="J3" s="79"/>
-    </row>
-    <row r="4" spans="1:11" s="52" customFormat="1" ht="47.25">
+      <c r="K3" s="79"/>
+    </row>
+    <row r="4" spans="1:12" s="52" customFormat="1" ht="47.25">
       <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="162"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="78" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>491</v>
       </c>
       <c r="E4" s="63"/>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="63"/>
+      <c r="G4" s="78" t="s">
         <v>640</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="79"/>
+      <c r="K4" s="48" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1" ht="78.75">
+    <row r="5" spans="1:12" s="52" customFormat="1" ht="78.75">
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="162"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="78" t="s">
         <v>492</v>
       </c>
@@ -25744,43 +25882,45 @@
         <v>639</v>
       </c>
       <c r="E5" s="63"/>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="69" t="s">
+      <c r="J5" s="71"/>
+      <c r="K5" s="69" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="100" customFormat="1" ht="47.25">
+    <row r="6" spans="1:12" s="100" customFormat="1" ht="47.25">
       <c r="A6" s="96"/>
-      <c r="B6" s="162"/>
-      <c r="C6" s="150" t="s">
-        <v>775</v>
+      <c r="B6" s="167"/>
+      <c r="C6" s="149" t="s">
+        <v>772</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E6" s="97"/>
-      <c r="F6" s="150" t="s">
-        <v>777</v>
-      </c>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="145" t="s">
+        <v>774</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="I6" s="99"/>
       <c r="J6" s="99"/>
-    </row>
-    <row r="7" spans="1:11" s="53" customFormat="1" ht="31.5">
+      <c r="K6" s="99"/>
+    </row>
+    <row r="7" spans="1:12" s="53" customFormat="1" ht="31.5">
       <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="162"/>
+      <c r="B7" s="168"/>
       <c r="C7" s="78" t="s">
         <v>493</v>
       </c>
@@ -25788,1926 +25928,2009 @@
         <v>618</v>
       </c>
       <c r="E7" s="63"/>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="78" t="s">
         <v>641</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="70"/>
+      <c r="I7" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="79"/>
+      <c r="K7" s="48" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1">
+    <row r="8" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="161" t="s">
+      <c r="B8" s="166" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="171" t="s">
         <v>489</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>585</v>
       </c>
       <c r="E8" s="63"/>
-      <c r="F8" s="174" t="s">
-        <v>728</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="181" t="s">
+        <v>725</v>
+      </c>
+      <c r="H8" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:11" s="52" customFormat="1">
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" s="52" customFormat="1">
       <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="63" t="s">
         <v>586</v>
       </c>
       <c r="E9" s="63"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="70" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+      <c r="I9" s="70"/>
       <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="1:11" s="52" customFormat="1">
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:12" s="52" customFormat="1">
       <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="166" t="s">
+      <c r="B10" s="167"/>
+      <c r="C10" s="171" t="s">
         <v>661</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="166" t="s">
-        <v>728</v>
-      </c>
-      <c r="G10" s="70" t="s">
+      <c r="E10" s="147"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="171" t="s">
+        <v>725</v>
+      </c>
+      <c r="H10" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="70"/>
       <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:11" s="100" customFormat="1">
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:12" s="100" customFormat="1">
       <c r="A11" s="96"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="167"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="172"/>
       <c r="D11" s="101" t="s">
-        <v>666</v>
-      </c>
-      <c r="E11" s="151"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="98" t="s">
+        <v>665</v>
+      </c>
+      <c r="E11" s="146"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
+      <c r="I11" s="98"/>
       <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="1:11" s="100" customFormat="1">
+      <c r="K11" s="99"/>
+    </row>
+    <row r="12" spans="1:12" s="100" customFormat="1">
       <c r="A12" s="96"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="167"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="172"/>
       <c r="D12" s="101" t="s">
         <v>606</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="98" t="s">
+      <c r="E12" s="146"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
+      <c r="I12" s="98"/>
       <c r="J12" s="99"/>
-    </row>
-    <row r="13" spans="1:11" s="100" customFormat="1">
+      <c r="K12" s="99"/>
+    </row>
+    <row r="13" spans="1:12" s="100" customFormat="1">
       <c r="A13" s="96"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="111" t="s">
+      <c r="B13" s="167"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="108" t="s">
+        <v>720</v>
+      </c>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+    </row>
+    <row r="14" spans="1:12" s="100" customFormat="1">
+      <c r="A14" s="96"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="112" t="s">
+        <v>737</v>
+      </c>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I14" s="98"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+    </row>
+    <row r="15" spans="1:12" s="100" customFormat="1">
+      <c r="A15" s="96"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="177" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>710</v>
+      </c>
+      <c r="E15" s="146"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="177" t="s">
+        <v>724</v>
+      </c>
+      <c r="H15" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+    </row>
+    <row r="16" spans="1:12" s="100" customFormat="1">
+      <c r="A16" s="96"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="108" t="s">
+        <v>722</v>
+      </c>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+    </row>
+    <row r="17" spans="1:11" s="100" customFormat="1">
+      <c r="A17" s="96"/>
+      <c r="B17" s="167"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="108" t="s">
         <v>723</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="98" t="s">
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-    </row>
-    <row r="14" spans="1:11" s="100" customFormat="1">
-      <c r="A14" s="96"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="115" t="s">
-        <v>740</v>
-      </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="98" t="s">
+      <c r="I17" s="98"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+    </row>
+    <row r="18" spans="1:11" s="100" customFormat="1">
+      <c r="A18" s="96"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="112" t="s">
+        <v>781</v>
+      </c>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="1:11" s="100" customFormat="1">
-      <c r="A15" s="96"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="119" t="s">
-        <v>606</v>
-      </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="98" t="s">
+      <c r="I18" s="98"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+    </row>
+    <row r="19" spans="1:11" s="100" customFormat="1">
+      <c r="A19" s="96"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="112" t="s">
+        <v>780</v>
+      </c>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="1:11" s="52" customFormat="1">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="162"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="118" t="s">
-        <v>689</v>
-      </c>
-      <c r="E16" s="152"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="70" t="s">
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+    </row>
+    <row r="20" spans="1:11" s="100" customFormat="1">
+      <c r="A20" s="96"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="112" t="s">
+        <v>786</v>
+      </c>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:10" s="52" customFormat="1">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="162"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="76" t="s">
-        <v>662</v>
-      </c>
-      <c r="E17" s="152"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="70" t="s">
+      <c r="I20" s="98"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+    </row>
+    <row r="21" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A21" s="19">
+        <v>10</v>
+      </c>
+      <c r="B21" s="167"/>
+      <c r="C21" s="171" t="s">
+        <v>635</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>687</v>
+      </c>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="181" t="s">
+        <v>642</v>
+      </c>
+      <c r="H21" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" s="100" customFormat="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="170" t="s">
-        <v>712</v>
-      </c>
-      <c r="D18" s="101" t="s">
-        <v>713</v>
-      </c>
-      <c r="E18" s="151"/>
-      <c r="F18" s="170" t="s">
-        <v>727</v>
-      </c>
-      <c r="G18" s="98" t="s">
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="1:11" s="52" customFormat="1">
+      <c r="A22" s="19">
+        <v>11</v>
+      </c>
+      <c r="B22" s="167"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="63" t="s">
+        <v>583</v>
+      </c>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H18" s="98"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="1:10" s="100" customFormat="1">
-      <c r="A19" s="96"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="111" t="s">
-        <v>725</v>
-      </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="98" t="s">
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+    </row>
+    <row r="23" spans="1:11" s="52" customFormat="1">
+      <c r="A23" s="19">
+        <v>12</v>
+      </c>
+      <c r="B23" s="167"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="63" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H19" s="98"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-    </row>
-    <row r="20" spans="1:10" s="100" customFormat="1">
-      <c r="A20" s="96"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="111" t="s">
-        <v>726</v>
-      </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="98" t="s">
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+    </row>
+    <row r="24" spans="1:11" s="52" customFormat="1">
+      <c r="A24" s="19">
+        <v>13</v>
+      </c>
+      <c r="B24" s="167"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="63" t="s">
+        <v>584</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-    </row>
-    <row r="21" spans="1:10" s="100" customFormat="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="115" t="s">
-        <v>784</v>
-      </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="1:10" s="100" customFormat="1">
-      <c r="A22" s="96"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="115" t="s">
-        <v>783</v>
-      </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="98" t="s">
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+    </row>
+    <row r="25" spans="1:11" s="52" customFormat="1" ht="78.75">
+      <c r="A25" s="19">
+        <v>14</v>
+      </c>
+      <c r="B25" s="167"/>
+      <c r="C25" s="169" t="s">
+        <v>636</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>768</v>
+      </c>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="182" t="s">
+        <v>637</v>
+      </c>
+      <c r="H25" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A23" s="19">
-        <v>10</v>
-      </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="174" t="s">
-        <v>635</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>690</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="174" t="s">
-        <v>642</v>
-      </c>
-      <c r="G23" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" s="52" customFormat="1">
-      <c r="A24" s="19">
-        <v>11</v>
-      </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="63" t="s">
-        <v>583</v>
-      </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-    </row>
-    <row r="25" spans="1:10" s="52" customFormat="1">
-      <c r="A25" s="19">
-        <v>12</v>
-      </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="63" t="s">
-        <v>588</v>
-      </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H25" s="70"/>
       <c r="I25" s="71"/>
       <c r="J25" s="71"/>
-    </row>
-    <row r="26" spans="1:10" s="52" customFormat="1">
+      <c r="K25" s="69"/>
+    </row>
+    <row r="26" spans="1:11" s="52" customFormat="1" ht="94.5">
       <c r="A26" s="19">
-        <v>13</v>
-      </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="174"/>
+        <v>15</v>
+      </c>
+      <c r="B26" s="167"/>
+      <c r="C26" s="170"/>
       <c r="D26" s="63" t="s">
-        <v>584</v>
+        <v>767</v>
       </c>
       <c r="E26" s="63"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="70" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H26" s="70"/>
       <c r="I26" s="71"/>
       <c r="J26" s="71"/>
-    </row>
-    <row r="27" spans="1:10" s="52" customFormat="1" ht="78.75">
+      <c r="K26" s="71"/>
+    </row>
+    <row r="27" spans="1:11" s="52" customFormat="1" ht="47.25">
       <c r="A27" s="19">
-        <v>14</v>
-      </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163" t="s">
-        <v>636</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>771</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="175" t="s">
-        <v>637</v>
-      </c>
-      <c r="G27" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="167"/>
+      <c r="C27" s="169" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="182" t="s">
+        <v>643</v>
+      </c>
+      <c r="H27" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H27" s="71"/>
       <c r="I27" s="71"/>
-      <c r="J27" s="69"/>
-    </row>
-    <row r="28" spans="1:10" s="52" customFormat="1" ht="94.5">
+      <c r="J27" s="71"/>
+      <c r="K27" s="69"/>
+    </row>
+    <row r="28" spans="1:11" s="52" customFormat="1" ht="110.25">
       <c r="A28" s="19">
-        <v>15</v>
-      </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="63" t="s">
-        <v>770</v>
-      </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="167"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H28" s="71"/>
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
-    </row>
-    <row r="29" spans="1:10" s="52" customFormat="1" ht="47.25">
+      <c r="K28" s="71"/>
+    </row>
+    <row r="29" spans="1:11" s="52" customFormat="1" ht="110.25">
       <c r="A29" s="19">
-        <v>16</v>
-      </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="164" t="s">
-        <v>558</v>
+        <v>18</v>
+      </c>
+      <c r="B29" s="167"/>
+      <c r="C29" s="151" t="s">
+        <v>559</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E29" s="64"/>
-      <c r="F29" s="175" t="s">
-        <v>643</v>
-      </c>
-      <c r="G29" s="70" t="s">
+      <c r="F29" s="64"/>
+      <c r="G29" s="80" t="s">
+        <v>640</v>
+      </c>
+      <c r="H29" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H29" s="71"/>
       <c r="I29" s="71"/>
-      <c r="J29" s="69"/>
-    </row>
-    <row r="30" spans="1:10" s="52" customFormat="1" ht="110.25">
-      <c r="A30" s="19">
-        <v>17</v>
-      </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="64" t="s">
-        <v>692</v>
-      </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="70" t="s">
+      <c r="J29" s="71"/>
+      <c r="K29" s="69"/>
+    </row>
+    <row r="30" spans="1:11" s="100" customFormat="1" ht="31.5">
+      <c r="A30" s="96"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="174" t="s">
+        <v>673</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>686</v>
+      </c>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="183" t="s">
+        <v>726</v>
+      </c>
+      <c r="H30" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-    </row>
-    <row r="31" spans="1:10" s="52" customFormat="1" ht="110.25">
-      <c r="A31" s="19">
-        <v>18</v>
-      </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="75" t="s">
-        <v>559</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>693</v>
-      </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="80" t="s">
-        <v>640</v>
-      </c>
-      <c r="G31" s="70" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+    </row>
+    <row r="31" spans="1:11" s="100" customFormat="1" ht="31.5">
+      <c r="A31" s="96"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="97" t="s">
+        <v>685</v>
+      </c>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="69"/>
-    </row>
-    <row r="32" spans="1:10" s="100" customFormat="1" ht="31.5">
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+    </row>
+    <row r="32" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A32" s="96"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="169" t="s">
-        <v>675</v>
-      </c>
+      <c r="B32" s="167"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="97" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E32" s="97"/>
-      <c r="F32" s="176" t="s">
-        <v>729</v>
-      </c>
-      <c r="G32" s="98" t="s">
+      <c r="F32" s="97"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H32" s="99"/>
       <c r="I32" s="99"/>
       <c r="J32" s="99"/>
-    </row>
-    <row r="33" spans="1:10" s="100" customFormat="1" ht="31.5">
-      <c r="A33" s="96"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="97" t="s">
-        <v>687</v>
-      </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="177"/>
-      <c r="G33" s="98" t="s">
+      <c r="K32" s="99"/>
+    </row>
+    <row r="33" spans="1:11" s="52" customFormat="1" ht="47.25">
+      <c r="A33" s="19">
+        <v>19</v>
+      </c>
+      <c r="B33" s="167"/>
+      <c r="C33" s="169" t="s">
+        <v>671</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="182" t="s">
+        <v>644</v>
+      </c>
+      <c r="H33" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-    </row>
-    <row r="34" spans="1:10" s="100" customFormat="1" ht="31.5">
-      <c r="A34" s="96"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="97" t="s">
-        <v>683</v>
-      </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="98" t="s">
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="72"/>
+    </row>
+    <row r="34" spans="1:11" s="52" customFormat="1">
+      <c r="A34" s="19">
+        <v>20</v>
+      </c>
+      <c r="B34" s="167"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1" ht="47.25">
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="72"/>
+    </row>
+    <row r="35" spans="1:11" s="52" customFormat="1">
       <c r="A35" s="19">
-        <v>19</v>
-      </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="163" t="s">
-        <v>673</v>
+        <v>21</v>
+      </c>
+      <c r="B35" s="167"/>
+      <c r="C35" s="169" t="s">
+        <v>672</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>589</v>
+        <v>691</v>
       </c>
       <c r="E35" s="64"/>
-      <c r="F35" s="175" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="H35" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H35" s="71"/>
       <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
-    </row>
-    <row r="36" spans="1:10" s="52" customFormat="1">
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+    </row>
+    <row r="36" spans="1:11" s="52" customFormat="1" ht="110.25">
       <c r="A36" s="19">
-        <v>20</v>
-      </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="163"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="167"/>
+      <c r="C36" s="180"/>
       <c r="D36" s="64" t="s">
-        <v>590</v>
+        <v>692</v>
       </c>
       <c r="E36" s="64"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="70" t="s">
+      <c r="F36" s="64"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H36" s="71"/>
       <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1">
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+    </row>
+    <row r="37" spans="1:11" s="52" customFormat="1" ht="94.5">
       <c r="A37" s="19">
-        <v>21</v>
-      </c>
-      <c r="B37" s="162"/>
-      <c r="C37" s="163" t="s">
-        <v>674</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B37" s="167"/>
+      <c r="C37" s="170"/>
       <c r="D37" s="64" t="s">
-        <v>694</v>
+        <v>593</v>
       </c>
       <c r="E37" s="64"/>
-      <c r="F37" s="175" t="s">
-        <v>644</v>
-      </c>
-      <c r="G37" s="70" t="s">
+      <c r="F37" s="64"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H37" s="71"/>
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="110.25">
+      <c r="K37" s="71"/>
+    </row>
+    <row r="38" spans="1:11" s="52" customFormat="1">
       <c r="A38" s="19">
-        <v>22</v>
-      </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="169" t="s">
+        <v>575</v>
+      </c>
       <c r="D38" s="64" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E38" s="64"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="70" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="182" t="s">
+        <v>644</v>
+      </c>
+      <c r="H38" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H38" s="71"/>
       <c r="I38" s="71"/>
       <c r="J38" s="71"/>
-    </row>
-    <row r="39" spans="1:10" s="52" customFormat="1" ht="94.5">
+      <c r="K38" s="72"/>
+    </row>
+    <row r="39" spans="1:11" s="52" customFormat="1">
       <c r="A39" s="19">
-        <v>23</v>
-      </c>
-      <c r="B39" s="162"/>
-      <c r="C39" s="163"/>
+        <v>25</v>
+      </c>
+      <c r="B39" s="167"/>
+      <c r="C39" s="180"/>
       <c r="D39" s="64" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E39" s="64"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="70" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H39" s="71"/>
       <c r="I39" s="71"/>
       <c r="J39" s="71"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1">
+      <c r="K39" s="71"/>
+    </row>
+    <row r="40" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A40" s="19">
-        <v>24</v>
-      </c>
-      <c r="B40" s="162"/>
-      <c r="C40" s="163" t="s">
-        <v>575</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B40" s="167"/>
+      <c r="C40" s="170"/>
       <c r="D40" s="64" t="s">
-        <v>696</v>
+        <v>594</v>
       </c>
       <c r="E40" s="64"/>
-      <c r="F40" s="175" t="s">
+      <c r="F40" s="64"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+    </row>
+    <row r="41" spans="1:11" s="52" customFormat="1">
+      <c r="A41" s="19">
+        <v>27</v>
+      </c>
+      <c r="B41" s="167"/>
+      <c r="C41" s="169" t="s">
+        <v>576</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G40" s="70" t="s">
+      <c r="H41" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="72"/>
-    </row>
-    <row r="41" spans="1:10" s="52" customFormat="1">
-      <c r="A41" s="19">
-        <v>25</v>
-      </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H41" s="71"/>
       <c r="I41" s="71"/>
       <c r="J41" s="71"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="K41" s="72"/>
+    </row>
+    <row r="42" spans="1:11" s="52" customFormat="1">
       <c r="A42" s="19">
-        <v>26</v>
-      </c>
-      <c r="B42" s="162"/>
-      <c r="C42" s="163"/>
+        <v>28</v>
+      </c>
+      <c r="B42" s="167"/>
+      <c r="C42" s="180"/>
       <c r="D42" s="64" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E42" s="64"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="70" t="s">
+      <c r="F42" s="64"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H42" s="71"/>
       <c r="I42" s="71"/>
       <c r="J42" s="71"/>
-    </row>
-    <row r="43" spans="1:10" s="52" customFormat="1">
+      <c r="K42" s="71"/>
+    </row>
+    <row r="43" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A43" s="19">
-        <v>27</v>
-      </c>
-      <c r="B43" s="162"/>
-      <c r="C43" s="163" t="s">
-        <v>576</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B43" s="167"/>
+      <c r="C43" s="170"/>
       <c r="D43" s="64" t="s">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="E43" s="64"/>
-      <c r="F43" s="175" t="s">
+      <c r="F43" s="64"/>
+      <c r="G43" s="182"/>
+      <c r="H43" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+    </row>
+    <row r="44" spans="1:11" s="52" customFormat="1">
+      <c r="A44" s="19">
+        <v>30</v>
+      </c>
+      <c r="B44" s="167"/>
+      <c r="C44" s="169" t="s">
+        <v>577</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="H44" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="72"/>
-    </row>
-    <row r="44" spans="1:10" s="52" customFormat="1">
-      <c r="A44" s="19">
-        <v>28</v>
-      </c>
-      <c r="B44" s="162"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H44" s="71"/>
       <c r="I44" s="71"/>
       <c r="J44" s="71"/>
-    </row>
-    <row r="45" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="K44" s="72"/>
+    </row>
+    <row r="45" spans="1:11" s="52" customFormat="1">
       <c r="A45" s="19">
-        <v>29</v>
-      </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="163"/>
+        <v>31</v>
+      </c>
+      <c r="B45" s="167"/>
+      <c r="C45" s="180"/>
       <c r="D45" s="64" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E45" s="64"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="70" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H45" s="71"/>
       <c r="I45" s="71"/>
       <c r="J45" s="71"/>
-    </row>
-    <row r="46" spans="1:10" s="52" customFormat="1">
+      <c r="K45" s="71"/>
+    </row>
+    <row r="46" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A46" s="19">
-        <v>30</v>
-      </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="163" t="s">
-        <v>577</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="170"/>
       <c r="D46" s="64" t="s">
-        <v>696</v>
+        <v>596</v>
       </c>
       <c r="E46" s="64"/>
-      <c r="F46" s="175" t="s">
+      <c r="F46" s="64"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+    </row>
+    <row r="47" spans="1:11" s="52" customFormat="1">
+      <c r="A47" s="19">
+        <v>33</v>
+      </c>
+      <c r="B47" s="167"/>
+      <c r="C47" s="169" t="s">
+        <v>578</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>693</v>
+      </c>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G46" s="70" t="s">
+      <c r="H47" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-    </row>
-    <row r="47" spans="1:10" s="52" customFormat="1">
-      <c r="A47" s="19">
-        <v>31</v>
-      </c>
-      <c r="B47" s="162"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H47" s="71"/>
       <c r="I47" s="71"/>
       <c r="J47" s="71"/>
-    </row>
-    <row r="48" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="K47" s="72"/>
+    </row>
+    <row r="48" spans="1:11" s="52" customFormat="1">
       <c r="A48" s="19">
-        <v>32</v>
-      </c>
-      <c r="B48" s="162"/>
-      <c r="C48" s="163"/>
+        <v>34</v>
+      </c>
+      <c r="B48" s="167"/>
+      <c r="C48" s="180"/>
       <c r="D48" s="64" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E48" s="64"/>
-      <c r="F48" s="175"/>
-      <c r="G48" s="70" t="s">
+      <c r="F48" s="64"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H48" s="71"/>
       <c r="I48" s="71"/>
       <c r="J48" s="71"/>
-    </row>
-    <row r="49" spans="1:10" s="52" customFormat="1">
+      <c r="K48" s="71"/>
+    </row>
+    <row r="49" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A49" s="19">
-        <v>33</v>
-      </c>
-      <c r="B49" s="162"/>
-      <c r="C49" s="163" t="s">
-        <v>578</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B49" s="167"/>
+      <c r="C49" s="170"/>
       <c r="D49" s="64" t="s">
-        <v>696</v>
+        <v>597</v>
       </c>
       <c r="E49" s="64"/>
-      <c r="F49" s="175" t="s">
+      <c r="F49" s="64"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="70" t="s">
+        <v>602</v>
+      </c>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+    </row>
+    <row r="50" spans="1:11" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A50" s="19">
+        <v>36</v>
+      </c>
+      <c r="B50" s="167"/>
+      <c r="C50" s="169" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>587</v>
+      </c>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="186" t="s">
         <v>644</v>
       </c>
-      <c r="G49" s="70" t="s">
+      <c r="H50" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="72"/>
-    </row>
-    <row r="50" spans="1:10" s="52" customFormat="1">
-      <c r="A50" s="19">
-        <v>34</v>
-      </c>
-      <c r="B50" s="162"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="64" t="s">
-        <v>592</v>
-      </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="70" t="s">
-        <v>602</v>
-      </c>
-      <c r="H50" s="71"/>
       <c r="I50" s="71"/>
       <c r="J50" s="71"/>
-    </row>
-    <row r="51" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="K50" s="72"/>
+    </row>
+    <row r="51" spans="1:11" s="52" customFormat="1">
       <c r="A51" s="19">
-        <v>35</v>
-      </c>
-      <c r="B51" s="162"/>
-      <c r="C51" s="163"/>
+        <v>37</v>
+      </c>
+      <c r="B51" s="167"/>
+      <c r="C51" s="180"/>
       <c r="D51" s="64" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
       <c r="E51" s="64"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="70" t="s">
+      <c r="F51" s="64"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H51" s="71"/>
       <c r="I51" s="71"/>
       <c r="J51" s="71"/>
-    </row>
-    <row r="52" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K51" s="71"/>
+    </row>
+    <row r="52" spans="1:11" s="52" customFormat="1">
       <c r="A52" s="19">
-        <v>36</v>
-      </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="164" t="s">
-        <v>579</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B52" s="167"/>
+      <c r="C52" s="180"/>
       <c r="D52" s="64" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E52" s="64"/>
-      <c r="F52" s="181" t="s">
-        <v>644</v>
-      </c>
-      <c r="G52" s="70" t="s">
+      <c r="F52" s="64"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H52" s="71"/>
       <c r="I52" s="71"/>
-      <c r="J52" s="72"/>
-    </row>
-    <row r="53" spans="1:10" s="52" customFormat="1">
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+    </row>
+    <row r="53" spans="1:11" s="52" customFormat="1">
       <c r="A53" s="19">
-        <v>37</v>
-      </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="179"/>
+        <v>39</v>
+      </c>
+      <c r="B53" s="167"/>
+      <c r="C53" s="170"/>
       <c r="D53" s="64" t="s">
-        <v>697</v>
+        <v>580</v>
       </c>
       <c r="E53" s="64"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="64"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H53" s="71"/>
       <c r="I53" s="71"/>
       <c r="J53" s="71"/>
-    </row>
-    <row r="54" spans="1:10" s="52" customFormat="1">
-      <c r="A54" s="19">
-        <v>38</v>
-      </c>
-      <c r="B54" s="162"/>
-      <c r="C54" s="179"/>
-      <c r="D54" s="64" t="s">
-        <v>591</v>
-      </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="183"/>
-      <c r="G54" s="70" t="s">
+      <c r="K53" s="72"/>
+    </row>
+    <row r="54" spans="1:11" s="100" customFormat="1" ht="78.75">
+      <c r="A54" s="130">
+        <v>39</v>
+      </c>
+      <c r="B54" s="167"/>
+      <c r="C54" s="128" t="s">
+        <v>733</v>
+      </c>
+      <c r="D54" s="129" t="s">
+        <v>732</v>
+      </c>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-    </row>
-    <row r="55" spans="1:10" s="52" customFormat="1">
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="132"/>
+    </row>
+    <row r="55" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A55" s="19">
         <v>39</v>
       </c>
-      <c r="B55" s="162"/>
-      <c r="C55" s="165"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="91" t="s">
+        <v>784</v>
+      </c>
       <c r="D55" s="64" t="s">
-        <v>580</v>
+        <v>785</v>
       </c>
       <c r="E55" s="64"/>
-      <c r="F55" s="182"/>
-      <c r="G55" s="70" t="s">
+      <c r="F55" s="64"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="70" t="s">
         <v>602</v>
       </c>
-      <c r="H55" s="71"/>
       <c r="I55" s="71"/>
-      <c r="J55" s="72"/>
-    </row>
-    <row r="56" spans="1:10" s="100" customFormat="1" ht="78.75">
-      <c r="A56" s="135">
-        <v>39</v>
-      </c>
-      <c r="B56" s="162"/>
-      <c r="C56" s="133" t="s">
-        <v>736</v>
-      </c>
-      <c r="D56" s="134" t="s">
-        <v>735</v>
-      </c>
-      <c r="E56" s="134"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="98" t="s">
+      <c r="J55" s="71"/>
+      <c r="K55" s="72"/>
+    </row>
+    <row r="56" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A56" s="19">
+        <v>40</v>
+      </c>
+      <c r="B56" s="166" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="80" t="s">
+        <v>642</v>
+      </c>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="137"/>
-    </row>
-    <row r="57" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="J56" s="71"/>
+      <c r="K56" s="69"/>
+    </row>
+    <row r="57" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A57" s="19">
-        <v>40</v>
-      </c>
-      <c r="B57" s="161" t="s">
-        <v>483</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B57" s="167"/>
       <c r="C57" s="78" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="D57" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E57" s="63"/>
-      <c r="F57" s="80" t="s">
+      <c r="F57" s="63"/>
+      <c r="G57" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="71"/>
+      <c r="I57" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I57" s="71"/>
-      <c r="J57" s="69"/>
-    </row>
-    <row r="58" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="J57" s="71"/>
+      <c r="K57" s="72"/>
+    </row>
+    <row r="58" spans="1:11" s="52" customFormat="1">
       <c r="A58" s="19">
-        <v>41</v>
-      </c>
-      <c r="B58" s="162"/>
-      <c r="C58" s="78" t="s">
-        <v>425</v>
+        <v>42</v>
+      </c>
+      <c r="B58" s="167"/>
+      <c r="C58" s="127" t="s">
+        <v>727</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="E58" s="63"/>
-      <c r="F58" s="80" t="s">
-        <v>642</v>
-      </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71" t="s">
+      <c r="F58" s="63"/>
+      <c r="G58" s="80" t="s">
+        <v>643</v>
+      </c>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I58" s="71"/>
-      <c r="J58" s="72"/>
-    </row>
-    <row r="59" spans="1:10" s="52" customFormat="1">
-      <c r="A59" s="19">
-        <v>42</v>
-      </c>
-      <c r="B59" s="162"/>
-      <c r="C59" s="132" t="s">
+      <c r="J58" s="71"/>
+      <c r="K58" s="69"/>
+    </row>
+    <row r="59" spans="1:11" s="100" customFormat="1">
+      <c r="A59" s="96"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="177" t="s">
+        <v>746</v>
+      </c>
+      <c r="D59" s="102" t="s">
+        <v>751</v>
+      </c>
+      <c r="E59" s="146"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="183" t="s">
+        <v>765</v>
+      </c>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="J59" s="99"/>
+      <c r="K59" s="99"/>
+    </row>
+    <row r="60" spans="1:11" s="100" customFormat="1">
+      <c r="A60" s="96"/>
+      <c r="B60" s="167"/>
+      <c r="C60" s="178"/>
+      <c r="D60" s="135" t="s">
+        <v>715</v>
+      </c>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+    </row>
+    <row r="61" spans="1:11" s="100" customFormat="1">
+      <c r="A61" s="96"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="178"/>
+      <c r="D61" s="112" t="s">
+        <v>749</v>
+      </c>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="184"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="J61" s="99"/>
+      <c r="K61" s="99"/>
+    </row>
+    <row r="62" spans="1:11" s="100" customFormat="1">
+      <c r="A62" s="96"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="178"/>
+      <c r="D62" s="112" t="s">
+        <v>750</v>
+      </c>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="185"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99" t="s">
+        <v>602</v>
+      </c>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+    </row>
+    <row r="63" spans="1:11" s="100" customFormat="1">
+      <c r="A63" s="96"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="178"/>
+      <c r="D63" s="108" t="s">
+        <v>720</v>
+      </c>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="98"/>
+      <c r="I63" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="J63" s="99"/>
+      <c r="K63" s="99"/>
+    </row>
+    <row r="64" spans="1:11" s="100" customFormat="1">
+      <c r="A64" s="96"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="112" t="s">
+        <v>737</v>
+      </c>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98" t="s">
+        <v>602</v>
+      </c>
+      <c r="J64" s="99"/>
+      <c r="K64" s="99"/>
+    </row>
+    <row r="65" spans="1:11" s="52" customFormat="1">
+      <c r="A65" s="19">
+        <v>43</v>
+      </c>
+      <c r="B65" s="167"/>
+      <c r="C65" s="78" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="80" t="s">
+        <v>725</v>
+      </c>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J65" s="71"/>
+      <c r="K65" s="69"/>
+    </row>
+    <row r="66" spans="1:11" s="52" customFormat="1">
+      <c r="A66" s="19">
+        <v>44</v>
+      </c>
+      <c r="B66" s="167"/>
+      <c r="C66" s="169" t="s">
+        <v>558</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="182" t="s">
+        <v>645</v>
+      </c>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J66" s="71"/>
+      <c r="K66" s="69"/>
+    </row>
+    <row r="67" spans="1:11" s="52" customFormat="1" ht="110.25">
+      <c r="A67" s="19">
+        <v>45</v>
+      </c>
+      <c r="B67" s="167"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="64" t="s">
+        <v>601</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="182"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J67" s="71"/>
+      <c r="K67" s="71"/>
+    </row>
+    <row r="68" spans="1:11" s="100" customFormat="1">
+      <c r="A68" s="96"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="174" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" s="97" t="s">
+        <v>696</v>
+      </c>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="183" t="s">
         <v>730</v>
       </c>
-      <c r="D59" s="63" t="s">
-        <v>552</v>
-      </c>
-      <c r="E59" s="63"/>
-      <c r="F59" s="80" t="s">
-        <v>643</v>
-      </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71" t="s">
+      <c r="H68" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="I59" s="71"/>
-      <c r="J59" s="69"/>
-    </row>
-    <row r="60" spans="1:10" s="100" customFormat="1">
-      <c r="A60" s="96"/>
-      <c r="B60" s="162"/>
-      <c r="C60" s="170" t="s">
-        <v>749</v>
-      </c>
-      <c r="D60" s="102" t="s">
-        <v>754</v>
-      </c>
-      <c r="E60" s="151"/>
-      <c r="F60" s="176" t="s">
-        <v>768</v>
-      </c>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99" t="s">
-        <v>602</v>
-      </c>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-    </row>
-    <row r="61" spans="1:10" s="100" customFormat="1">
-      <c r="A61" s="96"/>
-      <c r="B61" s="162"/>
-      <c r="C61" s="171"/>
-      <c r="D61" s="140" t="s">
-        <v>718</v>
-      </c>
-      <c r="E61" s="115"/>
-      <c r="F61" s="177"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99" t="s">
-        <v>602</v>
-      </c>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-    </row>
-    <row r="62" spans="1:10" s="100" customFormat="1">
-      <c r="A62" s="96"/>
-      <c r="B62" s="162"/>
-      <c r="C62" s="171"/>
-      <c r="D62" s="115" t="s">
-        <v>752</v>
-      </c>
-      <c r="E62" s="115"/>
-      <c r="F62" s="177"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99" t="s">
-        <v>602</v>
-      </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-    </row>
-    <row r="63" spans="1:10" s="100" customFormat="1">
-      <c r="A63" s="96"/>
-      <c r="B63" s="162"/>
-      <c r="C63" s="171"/>
-      <c r="D63" s="115" t="s">
-        <v>753</v>
-      </c>
-      <c r="E63" s="115"/>
-      <c r="F63" s="178"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99" t="s">
-        <v>602</v>
-      </c>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-    </row>
-    <row r="64" spans="1:10" s="100" customFormat="1">
-      <c r="A64" s="96"/>
-      <c r="B64" s="162"/>
-      <c r="C64" s="171"/>
-      <c r="D64" s="111" t="s">
-        <v>723</v>
-      </c>
-      <c r="E64" s="115"/>
-      <c r="F64" s="138"/>
-      <c r="G64" s="98"/>
-      <c r="H64" s="98" t="s">
-        <v>602</v>
-      </c>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-    </row>
-    <row r="65" spans="1:10" s="100" customFormat="1">
-      <c r="A65" s="96"/>
-      <c r="B65" s="162"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="115" t="s">
-        <v>740</v>
-      </c>
-      <c r="E65" s="115"/>
-      <c r="F65" s="138"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="98" t="s">
-        <v>602</v>
-      </c>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-    </row>
-    <row r="66" spans="1:10" s="52" customFormat="1">
-      <c r="A66" s="19">
-        <v>43</v>
-      </c>
-      <c r="B66" s="162"/>
-      <c r="C66" s="78" t="s">
-        <v>489</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>490</v>
-      </c>
-      <c r="E66" s="63"/>
-      <c r="F66" s="80" t="s">
-        <v>728</v>
-      </c>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="I66" s="71"/>
-      <c r="J66" s="69"/>
-    </row>
-    <row r="67" spans="1:10" s="52" customFormat="1">
-      <c r="A67" s="19">
-        <v>44</v>
-      </c>
-      <c r="B67" s="162"/>
-      <c r="C67" s="163" t="s">
-        <v>558</v>
-      </c>
-      <c r="D67" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="175" t="s">
-        <v>645</v>
-      </c>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="I67" s="71"/>
-      <c r="J67" s="69"/>
-    </row>
-    <row r="68" spans="1:10" s="52" customFormat="1" ht="110.25">
-      <c r="A68" s="19">
-        <v>45</v>
-      </c>
-      <c r="B68" s="162"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="64" t="s">
-        <v>601</v>
-      </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="175"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
-    </row>
-    <row r="69" spans="1:10" s="100" customFormat="1">
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="K68" s="99"/>
+    </row>
+    <row r="69" spans="1:11" s="100" customFormat="1" ht="47.25">
       <c r="A69" s="96"/>
-      <c r="B69" s="162"/>
-      <c r="C69" s="169" t="s">
-        <v>675</v>
-      </c>
+      <c r="B69" s="167"/>
+      <c r="C69" s="175"/>
       <c r="D69" s="97" t="s">
         <v>699</v>
       </c>
       <c r="E69" s="97"/>
-      <c r="F69" s="176" t="s">
-        <v>733</v>
-      </c>
-      <c r="G69" s="98" t="s">
+      <c r="F69" s="97"/>
+      <c r="G69" s="184"/>
+      <c r="H69" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H69" s="99"/>
       <c r="I69" s="99"/>
       <c r="J69" s="99"/>
-    </row>
-    <row r="70" spans="1:10" s="100" customFormat="1" ht="47.25">
+      <c r="K69" s="99"/>
+    </row>
+    <row r="70" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A70" s="96"/>
-      <c r="B70" s="162"/>
-      <c r="C70" s="169"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="176"/>
       <c r="D70" s="97" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="E70" s="97"/>
-      <c r="F70" s="177"/>
-      <c r="G70" s="98" t="s">
+      <c r="F70" s="97"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="98" t="s">
         <v>602</v>
       </c>
-      <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="99"/>
-    </row>
-    <row r="71" spans="1:10" s="100" customFormat="1" ht="31.5">
-      <c r="A71" s="96"/>
-      <c r="B71" s="162"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="97" t="s">
-        <v>683</v>
-      </c>
-      <c r="E71" s="97"/>
-      <c r="F71" s="178"/>
-      <c r="G71" s="98" t="s">
+      <c r="K70" s="99"/>
+    </row>
+    <row r="71" spans="1:11" s="52" customFormat="1">
+      <c r="A71" s="19">
+        <v>46</v>
+      </c>
+      <c r="B71" s="167"/>
+      <c r="C71" s="169" t="s">
+        <v>575</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="182" t="s">
+        <v>646</v>
+      </c>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-    </row>
-    <row r="72" spans="1:10" s="52" customFormat="1">
+      <c r="J71" s="71"/>
+      <c r="K71" s="71"/>
+    </row>
+    <row r="72" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A72" s="19">
-        <v>46</v>
-      </c>
-      <c r="B72" s="162"/>
-      <c r="C72" s="163" t="s">
-        <v>575</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B72" s="167"/>
+      <c r="C72" s="170"/>
       <c r="D72" s="64" t="s">
-        <v>698</v>
+        <v>594</v>
       </c>
       <c r="E72" s="64"/>
-      <c r="F72" s="175" t="s">
+      <c r="F72" s="64"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="J72" s="71"/>
+      <c r="K72" s="71"/>
+    </row>
+    <row r="73" spans="1:11" s="52" customFormat="1">
+      <c r="A73" s="19">
+        <v>48</v>
+      </c>
+      <c r="B73" s="167"/>
+      <c r="C73" s="169" t="s">
+        <v>576</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="182" t="s">
         <v>646</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71" t="s">
+      <c r="H73" s="71"/>
+      <c r="I73" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-    </row>
-    <row r="73" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A73" s="19">
-        <v>47</v>
-      </c>
-      <c r="B73" s="162"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="64" t="s">
-        <v>594</v>
-      </c>
-      <c r="E73" s="64"/>
-      <c r="F73" s="175"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71" t="s">
+      <c r="J73" s="71"/>
+      <c r="K73" s="71"/>
+    </row>
+    <row r="74" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A74" s="19">
+        <v>49</v>
+      </c>
+      <c r="B74" s="167"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="182"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-    </row>
-    <row r="74" spans="1:10" s="52" customFormat="1">
-      <c r="A74" s="19">
-        <v>48</v>
-      </c>
-      <c r="B74" s="162"/>
-      <c r="C74" s="163" t="s">
-        <v>576</v>
-      </c>
-      <c r="D74" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="E74" s="64"/>
-      <c r="F74" s="175" t="s">
+      <c r="J74" s="71"/>
+      <c r="K74" s="71"/>
+    </row>
+    <row r="75" spans="1:11" s="52" customFormat="1">
+      <c r="A75" s="19">
+        <v>50</v>
+      </c>
+      <c r="B75" s="167"/>
+      <c r="C75" s="169" t="s">
+        <v>577</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="182" t="s">
         <v>646</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71" t="s">
+      <c r="H75" s="71"/>
+      <c r="I75" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
-    </row>
-    <row r="75" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A75" s="19">
-        <v>49</v>
-      </c>
-      <c r="B75" s="162"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="E75" s="64"/>
-      <c r="F75" s="175"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71" t="s">
+      <c r="J75" s="71"/>
+      <c r="K75" s="71"/>
+    </row>
+    <row r="76" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A76" s="19">
+        <v>51</v>
+      </c>
+      <c r="B76" s="167"/>
+      <c r="C76" s="170"/>
+      <c r="D76" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="182"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
-    </row>
-    <row r="76" spans="1:10" s="52" customFormat="1">
-      <c r="A76" s="19">
-        <v>50</v>
-      </c>
-      <c r="B76" s="162"/>
-      <c r="C76" s="163" t="s">
-        <v>577</v>
-      </c>
-      <c r="D76" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="E76" s="64"/>
-      <c r="F76" s="175" t="s">
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+    </row>
+    <row r="77" spans="1:11" s="52" customFormat="1">
+      <c r="A77" s="19">
+        <v>52</v>
+      </c>
+      <c r="B77" s="167"/>
+      <c r="C77" s="169" t="s">
+        <v>578</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="182" t="s">
         <v>646</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71" t="s">
+      <c r="H77" s="71"/>
+      <c r="I77" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
-    </row>
-    <row r="77" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A77" s="19">
-        <v>51</v>
-      </c>
-      <c r="B77" s="162"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="64" t="s">
-        <v>596</v>
-      </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="175"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71" t="s">
+      <c r="J77" s="71"/>
+      <c r="K77" s="71"/>
+    </row>
+    <row r="78" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A78" s="19">
+        <v>53</v>
+      </c>
+      <c r="B78" s="167"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="182"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-    </row>
-    <row r="78" spans="1:10" s="52" customFormat="1">
-      <c r="A78" s="19">
-        <v>52</v>
-      </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="163" t="s">
-        <v>578</v>
-      </c>
-      <c r="D78" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="175" t="s">
+      <c r="J78" s="71"/>
+      <c r="K78" s="71"/>
+    </row>
+    <row r="79" spans="1:11" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="19">
+        <v>54</v>
+      </c>
+      <c r="B79" s="167"/>
+      <c r="C79" s="169" t="s">
+        <v>579</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="186" t="s">
         <v>646</v>
       </c>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71" t="s">
+      <c r="H79" s="71"/>
+      <c r="I79" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
-    </row>
-    <row r="79" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A79" s="19">
-        <v>53</v>
-      </c>
-      <c r="B79" s="162"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="175"/>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71" t="s">
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+    </row>
+    <row r="80" spans="1:11" s="52" customFormat="1">
+      <c r="A80" s="19">
+        <v>55</v>
+      </c>
+      <c r="B80" s="167"/>
+      <c r="C80" s="170"/>
+      <c r="D80" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="187"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
-    </row>
-    <row r="80" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="19">
-        <v>54</v>
-      </c>
-      <c r="B80" s="162"/>
-      <c r="C80" s="164" t="s">
-        <v>579</v>
-      </c>
-      <c r="D80" s="64" t="s">
-        <v>698</v>
-      </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="181" t="s">
-        <v>646</v>
-      </c>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="I80" s="71"/>
       <c r="J80" s="71"/>
-    </row>
-    <row r="81" spans="1:10" s="52" customFormat="1">
+      <c r="K80" s="71"/>
+    </row>
+    <row r="81" spans="1:11" s="52" customFormat="1">
       <c r="A81" s="19">
-        <v>55</v>
-      </c>
-      <c r="B81" s="162"/>
-      <c r="C81" s="165"/>
+        <v>56</v>
+      </c>
+      <c r="B81" s="168"/>
+      <c r="C81" s="91" t="s">
+        <v>581</v>
+      </c>
       <c r="D81" s="64" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E81" s="64"/>
-      <c r="F81" s="182"/>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71" t="s">
+      <c r="F81" s="64"/>
+      <c r="G81" s="81" t="s">
+        <v>725</v>
+      </c>
+      <c r="H81" s="70" t="s">
         <v>602</v>
       </c>
       <c r="I81" s="71"/>
       <c r="J81" s="71"/>
-    </row>
-    <row r="82" spans="1:10" s="52" customFormat="1">
+      <c r="K81" s="72"/>
+    </row>
+    <row r="82" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A82" s="19">
-        <v>56</v>
-      </c>
-      <c r="B82" s="162"/>
-      <c r="C82" s="91" t="s">
-        <v>581</v>
-      </c>
-      <c r="D82" s="64" t="s">
-        <v>582</v>
-      </c>
-      <c r="E82" s="64"/>
-      <c r="F82" s="81" t="s">
-        <v>728</v>
-      </c>
-      <c r="G82" s="70" t="s">
-        <v>602</v>
+        <v>57</v>
+      </c>
+      <c r="B82" s="166" t="s">
+        <v>485</v>
+      </c>
+      <c r="C82" s="78" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>507</v>
+      </c>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="80" t="s">
+        <v>642</v>
       </c>
       <c r="H82" s="71"/>
       <c r="I82" s="71"/>
-      <c r="J82" s="72"/>
-    </row>
-    <row r="83" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="J82" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K82" s="69"/>
+    </row>
+    <row r="83" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A83" s="19">
-        <v>57</v>
-      </c>
-      <c r="B83" s="173" t="s">
-        <v>485</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B83" s="167"/>
       <c r="C83" s="78" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E83" s="63"/>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="63"/>
+      <c r="G83" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="G83" s="71"/>
       <c r="H83" s="71"/>
-      <c r="I83" s="71" t="s">
+      <c r="I83" s="71"/>
+      <c r="J83" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J83" s="69"/>
-    </row>
-    <row r="84" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="K83" s="69"/>
+    </row>
+    <row r="84" spans="1:11" s="52" customFormat="1" ht="47.25">
       <c r="A84" s="19">
-        <v>58</v>
-      </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="D84" s="63" t="s">
-        <v>505</v>
-      </c>
-      <c r="E84" s="63"/>
-      <c r="F84" s="80" t="s">
-        <v>642</v>
-      </c>
-      <c r="G84" s="71"/>
+        <v>59</v>
+      </c>
+      <c r="B84" s="167"/>
+      <c r="C84" s="169" t="s">
+        <v>671</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>589</v>
+      </c>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="182" t="s">
+        <v>644</v>
+      </c>
       <c r="H84" s="71"/>
-      <c r="I84" s="71" t="s">
+      <c r="I84" s="71"/>
+      <c r="J84" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J84" s="69"/>
-    </row>
-    <row r="85" spans="1:10" s="52" customFormat="1" ht="47.25">
+      <c r="K84" s="69"/>
+    </row>
+    <row r="85" spans="1:11" s="52" customFormat="1">
       <c r="A85" s="19">
-        <v>59</v>
-      </c>
-      <c r="B85" s="162"/>
-      <c r="C85" s="163" t="s">
-        <v>673</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B85" s="167"/>
+      <c r="C85" s="170"/>
       <c r="D85" s="64" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E85" s="64"/>
-      <c r="F85" s="175" t="s">
+      <c r="F85" s="64"/>
+      <c r="G85" s="182"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K85" s="71"/>
+    </row>
+    <row r="86" spans="1:11" s="52" customFormat="1">
+      <c r="A86" s="19">
+        <v>61</v>
+      </c>
+      <c r="B86" s="167"/>
+      <c r="C86" s="169" t="s">
+        <v>672</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71" t="s">
+      <c r="H86" s="71"/>
+      <c r="I86" s="71"/>
+      <c r="J86" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J85" s="69"/>
-    </row>
-    <row r="86" spans="1:10" s="52" customFormat="1">
-      <c r="A86" s="19">
-        <v>60</v>
-      </c>
-      <c r="B86" s="162"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="64" t="s">
-        <v>590</v>
-      </c>
-      <c r="E86" s="64"/>
-      <c r="F86" s="175"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71" t="s">
+      <c r="K86" s="71"/>
+    </row>
+    <row r="87" spans="1:11" s="52" customFormat="1" ht="110.25">
+      <c r="A87" s="19">
+        <v>62</v>
+      </c>
+      <c r="B87" s="167"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="64" t="s">
+        <v>599</v>
+      </c>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="182"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J86" s="71"/>
-    </row>
-    <row r="87" spans="1:10" s="52" customFormat="1">
-      <c r="A87" s="19">
-        <v>61</v>
-      </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="163" t="s">
-        <v>674</v>
-      </c>
-      <c r="D87" s="64" t="s">
+      <c r="K87" s="71"/>
+    </row>
+    <row r="88" spans="1:11" s="52" customFormat="1" ht="94.5">
+      <c r="A88" s="19">
+        <v>63</v>
+      </c>
+      <c r="B88" s="167"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="64" t="s">
+        <v>600</v>
+      </c>
+      <c r="E88" s="64"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="182"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K88" s="71"/>
+    </row>
+    <row r="89" spans="1:11" s="52" customFormat="1">
+      <c r="A89" s="19">
+        <v>64</v>
+      </c>
+      <c r="B89" s="167"/>
+      <c r="C89" s="169" t="s">
+        <v>575</v>
+      </c>
+      <c r="D89" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="E87" s="64"/>
-      <c r="F87" s="175" t="s">
+      <c r="E89" s="64"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="182" t="s">
+        <v>646</v>
+      </c>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K89" s="71"/>
+    </row>
+    <row r="90" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A90" s="19">
+        <v>65</v>
+      </c>
+      <c r="B90" s="167"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="182"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K90" s="71"/>
+    </row>
+    <row r="91" spans="1:11" s="52" customFormat="1">
+      <c r="A91" s="19">
+        <v>66</v>
+      </c>
+      <c r="B91" s="167"/>
+      <c r="C91" s="169" t="s">
+        <v>576</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="182" t="s">
         <v>644</v>
       </c>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71" t="s">
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J87" s="71"/>
-    </row>
-    <row r="88" spans="1:10" s="52" customFormat="1" ht="110.25">
-      <c r="A88" s="19">
-        <v>62</v>
-      </c>
-      <c r="B88" s="162"/>
-      <c r="C88" s="163"/>
-      <c r="D88" s="64" t="s">
-        <v>599</v>
-      </c>
-      <c r="E88" s="64"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71" t="s">
+      <c r="K91" s="71"/>
+    </row>
+    <row r="92" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A92" s="19">
+        <v>67</v>
+      </c>
+      <c r="B92" s="167"/>
+      <c r="C92" s="170"/>
+      <c r="D92" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="182"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="71"/>
+      <c r="J92" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J88" s="71"/>
-    </row>
-    <row r="89" spans="1:10" s="52" customFormat="1" ht="94.5">
-      <c r="A89" s="19">
-        <v>63</v>
-      </c>
-      <c r="B89" s="162"/>
-      <c r="C89" s="163"/>
-      <c r="D89" s="64" t="s">
-        <v>600</v>
-      </c>
-      <c r="E89" s="64"/>
-      <c r="F89" s="175"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71" t="s">
+      <c r="K92" s="71"/>
+    </row>
+    <row r="93" spans="1:11" s="52" customFormat="1">
+      <c r="A93" s="19">
+        <v>68</v>
+      </c>
+      <c r="B93" s="167"/>
+      <c r="C93" s="169" t="s">
+        <v>577</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E93" s="64"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="182" t="s">
+        <v>644</v>
+      </c>
+      <c r="H93" s="71"/>
+      <c r="I93" s="71"/>
+      <c r="J93" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J89" s="71"/>
-    </row>
-    <row r="90" spans="1:10" s="52" customFormat="1">
-      <c r="A90" s="19">
-        <v>64</v>
-      </c>
-      <c r="B90" s="162"/>
-      <c r="C90" s="163" t="s">
-        <v>575</v>
-      </c>
-      <c r="D90" s="64" t="s">
+      <c r="K93" s="71"/>
+    </row>
+    <row r="94" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A94" s="19">
+        <v>69</v>
+      </c>
+      <c r="B94" s="167"/>
+      <c r="C94" s="170"/>
+      <c r="D94" s="64" t="s">
+        <v>596</v>
+      </c>
+      <c r="E94" s="64"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="182"/>
+      <c r="H94" s="71"/>
+      <c r="I94" s="71"/>
+      <c r="J94" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K94" s="71"/>
+    </row>
+    <row r="95" spans="1:11" s="52" customFormat="1">
+      <c r="A95" s="19">
+        <v>70</v>
+      </c>
+      <c r="B95" s="167"/>
+      <c r="C95" s="169" t="s">
+        <v>578</v>
+      </c>
+      <c r="D95" s="64" t="s">
         <v>598</v>
       </c>
-      <c r="E90" s="64"/>
-      <c r="F90" s="175" t="s">
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="182" t="s">
+        <v>644</v>
+      </c>
+      <c r="H95" s="71"/>
+      <c r="I95" s="71"/>
+      <c r="J95" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K95" s="71"/>
+    </row>
+    <row r="96" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A96" s="19">
+        <v>71</v>
+      </c>
+      <c r="B96" s="167"/>
+      <c r="C96" s="170"/>
+      <c r="D96" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="E96" s="64"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="182"/>
+      <c r="H96" s="71"/>
+      <c r="I96" s="71"/>
+      <c r="J96" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="K96" s="71"/>
+    </row>
+    <row r="97" spans="1:11" s="52" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A97" s="19">
+        <v>72</v>
+      </c>
+      <c r="B97" s="167"/>
+      <c r="C97" s="169" t="s">
+        <v>579</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>598</v>
+      </c>
+      <c r="E97" s="64"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="186" t="s">
         <v>646</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71" t="s">
+      <c r="H97" s="71"/>
+      <c r="I97" s="71"/>
+      <c r="J97" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J90" s="71"/>
-    </row>
-    <row r="91" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A91" s="19">
-        <v>65</v>
-      </c>
-      <c r="B91" s="162"/>
-      <c r="C91" s="163"/>
-      <c r="D91" s="64" t="s">
-        <v>594</v>
-      </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="175"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71" t="s">
+      <c r="K97" s="71"/>
+    </row>
+    <row r="98" spans="1:11" s="52" customFormat="1">
+      <c r="A98" s="19">
+        <v>73</v>
+      </c>
+      <c r="B98" s="167"/>
+      <c r="C98" s="170"/>
+      <c r="D98" s="64" t="s">
+        <v>580</v>
+      </c>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="187"/>
+      <c r="H98" s="71"/>
+      <c r="I98" s="71"/>
+      <c r="J98" s="71" t="s">
         <v>602</v>
       </c>
-      <c r="J91" s="71"/>
-    </row>
-    <row r="92" spans="1:10" s="52" customFormat="1">
-      <c r="A92" s="19">
-        <v>66</v>
-      </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="163" t="s">
-        <v>576</v>
-      </c>
-      <c r="D92" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="175" t="s">
-        <v>644</v>
-      </c>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J92" s="71"/>
-    </row>
-    <row r="93" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A93" s="19">
-        <v>67</v>
-      </c>
-      <c r="B93" s="162"/>
-      <c r="C93" s="163"/>
-      <c r="D93" s="64" t="s">
-        <v>595</v>
-      </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="175"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J93" s="71"/>
-    </row>
-    <row r="94" spans="1:10" s="52" customFormat="1">
-      <c r="A94" s="19">
-        <v>68</v>
-      </c>
-      <c r="B94" s="162"/>
-      <c r="C94" s="163" t="s">
-        <v>577</v>
-      </c>
-      <c r="D94" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="175" t="s">
-        <v>644</v>
-      </c>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J94" s="71"/>
-    </row>
-    <row r="95" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A95" s="19">
-        <v>69</v>
-      </c>
-      <c r="B95" s="162"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="64" t="s">
-        <v>596</v>
-      </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="175"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J95" s="71"/>
-    </row>
-    <row r="96" spans="1:10" s="52" customFormat="1">
-      <c r="A96" s="19">
-        <v>70</v>
-      </c>
-      <c r="B96" s="162"/>
-      <c r="C96" s="163" t="s">
-        <v>578</v>
-      </c>
-      <c r="D96" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="175" t="s">
-        <v>644</v>
-      </c>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J96" s="71"/>
-    </row>
-    <row r="97" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A97" s="19">
-        <v>71</v>
-      </c>
-      <c r="B97" s="162"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="64" t="s">
-        <v>597</v>
-      </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="175"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J97" s="71"/>
-    </row>
-    <row r="98" spans="1:10" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A98" s="19">
-        <v>72</v>
-      </c>
-      <c r="B98" s="162"/>
-      <c r="C98" s="164" t="s">
-        <v>579</v>
-      </c>
-      <c r="D98" s="64" t="s">
-        <v>598</v>
-      </c>
-      <c r="E98" s="64"/>
-      <c r="F98" s="181" t="s">
-        <v>646</v>
-      </c>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71" t="s">
-        <v>602</v>
-      </c>
-      <c r="J98" s="71"/>
-    </row>
-    <row r="99" spans="1:10" s="52" customFormat="1">
+      <c r="K98" s="71"/>
+    </row>
+    <row r="99" spans="1:11" s="52" customFormat="1">
       <c r="A99" s="19">
-        <v>73</v>
-      </c>
-      <c r="B99" s="162"/>
-      <c r="C99" s="165"/>
+        <v>74</v>
+      </c>
+      <c r="B99" s="168"/>
+      <c r="C99" s="91" t="s">
+        <v>581</v>
+      </c>
       <c r="D99" s="64" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E99" s="64"/>
-      <c r="F99" s="182"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71" t="s">
-        <v>602</v>
-      </c>
+      <c r="F99" s="64"/>
+      <c r="G99" s="81" t="s">
+        <v>725</v>
+      </c>
+      <c r="H99" s="70"/>
+      <c r="I99" s="71"/>
       <c r="J99" s="71"/>
-    </row>
-    <row r="100" spans="1:10" s="52" customFormat="1">
+      <c r="K99" s="72"/>
+    </row>
+    <row r="100" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A100" s="19">
-        <v>74</v>
-      </c>
-      <c r="B100" s="162"/>
-      <c r="C100" s="91" t="s">
-        <v>581</v>
+        <v>75</v>
+      </c>
+      <c r="B100" s="166" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" s="169" t="s">
+        <v>650</v>
       </c>
       <c r="D100" s="64" t="s">
-        <v>582</v>
+        <v>745</v>
       </c>
       <c r="E100" s="64"/>
-      <c r="F100" s="81" t="s">
-        <v>728</v>
-      </c>
-      <c r="G100" s="70"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="80"/>
       <c r="H100" s="71"/>
       <c r="I100" s="71"/>
-      <c r="J100" s="72"/>
-    </row>
-    <row r="101" spans="1:10" s="52" customFormat="1" ht="31.5">
-      <c r="A101" s="19">
-        <v>75</v>
-      </c>
-      <c r="B101" s="173" t="s">
-        <v>486</v>
-      </c>
-      <c r="C101" s="164" t="s">
-        <v>650</v>
-      </c>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="52" customFormat="1" ht="31.5">
+      <c r="A101" s="95"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="180"/>
       <c r="D101" s="64" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E101" s="64"/>
-      <c r="F101" s="80"/>
-      <c r="G101" s="71"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="113"/>
       <c r="H101" s="71"/>
       <c r="I101" s="71"/>
-      <c r="J101" s="71" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="52" customFormat="1" ht="31.5">
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+    </row>
+    <row r="102" spans="1:11" s="52" customFormat="1">
       <c r="A102" s="95"/>
-      <c r="B102" s="162"/>
-      <c r="C102" s="179"/>
+      <c r="B102" s="168"/>
+      <c r="C102" s="170"/>
       <c r="D102" s="64" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E102" s="64"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="71"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="92"/>
       <c r="H102" s="71"/>
       <c r="I102" s="71"/>
       <c r="J102" s="71"/>
-    </row>
-    <row r="103" spans="1:10" s="52" customFormat="1">
-      <c r="A103" s="95"/>
-      <c r="B103" s="180"/>
-      <c r="C103" s="165"/>
-      <c r="D103" s="64" t="s">
-        <v>743</v>
-      </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="92"/>
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="D104" s="139"/>
-      <c r="E104" s="139"/>
+      <c r="K102" s="71"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="F103" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F10:F17"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B83:B100"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B82:B99"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B8:B56"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B8:B55"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B57:B82"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B56:B81"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C10:C14"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C59:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27716,21 +27939,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="60" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="65.28515625" style="57" customWidth="1"/>
-    <col min="7" max="7" width="46" style="3" customWidth="1"/>
+    <col min="6" max="6" width="62.5703125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="54.140625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -27988,27 +28211,27 @@
         <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="63">
-      <c r="A17" s="121">
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="63">
+      <c r="A17" s="116">
         <v>5</v>
       </c>
-      <c r="B17" s="112" t="s">
-        <v>778</v>
-      </c>
-      <c r="C17" s="113" t="s">
+      <c r="B17" s="109" t="s">
+        <v>775</v>
+      </c>
+      <c r="C17" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="111">
         <v>255</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F17" s="115" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="112" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>6</v>
       </c>
@@ -28028,7 +28251,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="65">
         <v>7</v>
       </c>
@@ -28046,7 +28269,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -28064,17 +28287,17 @@
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="15" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="54" t="s">
         <v>0</v>
       </c>
@@ -28094,7 +28317,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -28114,7 +28337,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -28130,74 +28353,86 @@
       <c r="E26" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F26" s="116" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="16" customFormat="1">
-      <c r="A27" s="108">
+      <c r="F26" s="152" t="s">
+        <v>801</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="16" customFormat="1">
+      <c r="A27" s="105">
         <v>3</v>
       </c>
-      <c r="B27" s="112" t="s">
-        <v>668</v>
-      </c>
-      <c r="C27" s="109" t="s">
+      <c r="B27" s="109" t="s">
+        <v>667</v>
+      </c>
+      <c r="C27" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="107">
         <v>8</v>
       </c>
-      <c r="E27" s="109" t="s">
+      <c r="E27" s="106" t="s">
         <v>436</v>
       </c>
       <c r="F27" s="102" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="16" customFormat="1">
-      <c r="A28" s="121">
+        <v>666</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="16" customFormat="1">
+      <c r="A28" s="116">
         <v>4</v>
       </c>
-      <c r="B28" s="109" t="s">
-        <v>722</v>
-      </c>
-      <c r="C28" s="109" t="s">
+      <c r="B28" s="106" t="s">
+        <v>719</v>
+      </c>
+      <c r="C28" s="106" t="s">
         <v>605</v>
       </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="109" t="s">
+      <c r="D28" s="107"/>
+      <c r="E28" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F28" s="111" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="16" customFormat="1">
-      <c r="A29" s="108">
+      <c r="F28" s="108" t="s">
+        <v>720</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="16" customFormat="1">
+      <c r="A29" s="105">
         <v>5</v>
       </c>
-      <c r="B29" s="109" t="s">
-        <v>737</v>
-      </c>
-      <c r="C29" s="109" t="s">
+      <c r="B29" s="106" t="s">
+        <v>734</v>
+      </c>
+      <c r="C29" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="110">
+      <c r="D29" s="107">
         <v>8</v>
       </c>
-      <c r="E29" s="109" t="s">
+      <c r="E29" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F29" s="115" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="112" t="s">
+        <v>769</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>605</v>
@@ -28207,33 +28442,39 @@
         <v>436</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4">
+        <v>718</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1">
+      <c r="A31" s="105">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="106" t="s">
+        <v>787</v>
+      </c>
+      <c r="C31" s="106" t="s">
         <v>605</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="107"/>
+      <c r="E31" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="108" t="s">
+        <v>792</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>607</v>
+        <v>659</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>605</v>
@@ -28243,749 +28484,746 @@
         <v>436</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4">
+        <v>660</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="16" customFormat="1">
+      <c r="A33" s="105">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="1" t="s">
+      <c r="B33" s="106" t="s">
+        <v>788</v>
+      </c>
+      <c r="C33" s="106" t="s">
+        <v>605</v>
+      </c>
+      <c r="D33" s="107"/>
+      <c r="E33" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="108" t="s">
+        <v>791</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4">
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>437</v>
+        <v>605</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="16" customFormat="1">
+      <c r="A35" s="105">
+        <v>11</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>789</v>
+      </c>
+      <c r="C35" s="106" t="s">
+        <v>605</v>
+      </c>
+      <c r="D35" s="107"/>
+      <c r="E35" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F35" s="108" t="s">
+        <v>790</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A36" s="4">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="16" customFormat="1">
-      <c r="A37" s="122" t="s">
+    <row r="40" spans="1:7" s="16" customFormat="1">
+      <c r="A40" s="117" t="s">
+        <v>704</v>
+      </c>
+      <c r="D40" s="118"/>
+      <c r="F40" s="119"/>
+    </row>
+    <row r="41" spans="1:7" s="123" customFormat="1">
+      <c r="A41" s="120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>430</v>
+      </c>
+      <c r="C41" s="120" t="s">
+        <v>431</v>
+      </c>
+      <c r="D41" s="120" t="s">
+        <v>502</v>
+      </c>
+      <c r="E41" s="121" t="s">
+        <v>432</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="16" customFormat="1">
+      <c r="A42" s="105">
+        <v>1</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D42" s="107">
+        <v>8</v>
+      </c>
+      <c r="E42" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="16" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A43" s="105">
+        <v>2</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>683</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="107">
+        <v>8</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F43" s="112" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="16" customFormat="1">
+      <c r="A44" s="105">
+        <v>3</v>
+      </c>
+      <c r="B44" s="109" t="s">
+        <v>684</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D44" s="111">
+        <v>50</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="16" customFormat="1">
+      <c r="A45" s="105">
+        <v>5</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>708</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="107">
+        <v>8</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F45" s="108" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="16" customFormat="1">
+      <c r="A46" s="105">
+        <v>6</v>
+      </c>
+      <c r="B46" s="106" t="s">
         <v>707</v>
       </c>
-      <c r="D37" s="123"/>
-      <c r="F37" s="124"/>
-    </row>
-    <row r="38" spans="1:6" s="128" customFormat="1">
-      <c r="A38" s="125" t="s">
+      <c r="C46" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="111">
+        <v>100</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="16" customFormat="1">
+      <c r="A47" s="105">
+        <v>7</v>
+      </c>
+      <c r="B47" s="109" t="s">
+        <v>777</v>
+      </c>
+      <c r="C47" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D47" s="107">
+        <v>8</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F47" s="112" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="16" customFormat="1">
+      <c r="A48" s="105">
+        <v>8</v>
+      </c>
+      <c r="B48" s="109" t="s">
+        <v>778</v>
+      </c>
+      <c r="C48" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D48" s="107">
+        <v>8</v>
+      </c>
+      <c r="E48" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F48" s="112" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="16" customFormat="1">
+      <c r="A49" s="105">
+        <v>9</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>530</v>
+      </c>
+      <c r="C49" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="D49" s="107"/>
+      <c r="E49" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F49" s="108" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="16" customFormat="1">
+      <c r="A50" s="105">
+        <v>10</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>531</v>
+      </c>
+      <c r="C50" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="D50" s="107"/>
+      <c r="E50" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="F50" s="108" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="123" customFormat="1">
+      <c r="A51" s="124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="125"/>
+      <c r="F51" s="126"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="125" t="s">
+      <c r="B54" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C54" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="D38" s="125" t="s">
+      <c r="D54" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E38" s="126" t="s">
+      <c r="E54" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="F38" s="127" t="s">
+      <c r="F54" s="58" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="16" customFormat="1">
-      <c r="A39" s="108">
+    <row r="55" spans="1:6">
+      <c r="A55" s="4">
         <v>1</v>
       </c>
-      <c r="B39" s="109" t="s">
+      <c r="B55" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C39" s="109" t="s">
+      <c r="C55" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D55" s="61">
         <v>8</v>
-      </c>
-      <c r="E39" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F39" s="111" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A40" s="108">
-        <v>2</v>
-      </c>
-      <c r="B40" s="109" t="s">
-        <v>685</v>
-      </c>
-      <c r="C40" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D40" s="110">
-        <v>8</v>
-      </c>
-      <c r="E40" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F40" s="115" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="16" customFormat="1">
-      <c r="A41" s="108">
-        <v>3</v>
-      </c>
-      <c r="B41" s="112" t="s">
-        <v>686</v>
-      </c>
-      <c r="C41" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D41" s="114">
-        <v>50</v>
-      </c>
-      <c r="E41" s="109" t="s">
-        <v>453</v>
-      </c>
-      <c r="F41" s="111" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="16" customFormat="1">
-      <c r="A42" s="108">
-        <v>4</v>
-      </c>
-      <c r="B42" s="109" t="s">
-        <v>711</v>
-      </c>
-      <c r="C42" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D42" s="110">
-        <v>8</v>
-      </c>
-      <c r="E42" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F42" s="111" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="16" customFormat="1">
-      <c r="A43" s="108">
-        <v>5</v>
-      </c>
-      <c r="B43" s="109" t="s">
-        <v>710</v>
-      </c>
-      <c r="C43" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D43" s="114">
-        <v>100</v>
-      </c>
-      <c r="E43" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F43" s="111" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="16" customFormat="1">
-      <c r="A44" s="108">
-        <v>6</v>
-      </c>
-      <c r="B44" s="112" t="s">
-        <v>780</v>
-      </c>
-      <c r="C44" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D44" s="110">
-        <v>8</v>
-      </c>
-      <c r="E44" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F44" s="115" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1">
-      <c r="A45" s="108">
-        <v>7</v>
-      </c>
-      <c r="B45" s="112" t="s">
-        <v>781</v>
-      </c>
-      <c r="C45" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D45" s="110">
-        <v>8</v>
-      </c>
-      <c r="E45" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F45" s="115" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="16" customFormat="1">
-      <c r="A46" s="108">
-        <v>8</v>
-      </c>
-      <c r="B46" s="109" t="s">
-        <v>530</v>
-      </c>
-      <c r="C46" s="109" t="s">
-        <v>437</v>
-      </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F46" s="111" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1">
-      <c r="A47" s="108">
-        <v>9</v>
-      </c>
-      <c r="B47" s="109" t="s">
-        <v>531</v>
-      </c>
-      <c r="C47" s="109" t="s">
-        <v>437</v>
-      </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="109" t="s">
-        <v>453</v>
-      </c>
-      <c r="F47" s="111" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="128" customFormat="1">
-      <c r="A48" s="129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="130"/>
-      <c r="F48" s="131"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="15" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="4">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D52" s="61">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="65">
-        <v>2</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D53" s="62">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F53" s="67" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="65">
-        <v>3</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>620</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D54" s="62">
-        <v>50</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F54" s="67" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="65">
-        <v>4</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D55" s="62">
-        <v>50</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F55" s="59" t="s">
-        <v>444</v>
+      <c r="F55" s="5" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="65">
-        <v>5</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>458</v>
+        <v>2</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>619</v>
       </c>
       <c r="C56" s="44" t="s">
         <v>494</v>
       </c>
       <c r="D56" s="62">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F56" s="59" t="s">
-        <v>503</v>
+        <v>453</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="65">
-        <v>6</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>438</v>
+        <v>3</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>620</v>
       </c>
       <c r="C57" s="44" t="s">
         <v>494</v>
       </c>
       <c r="D57" s="62">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F57" s="59" t="s">
-        <v>504</v>
+      <c r="F57" s="67" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="D58" s="62">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D59" s="62"/>
+        <v>494</v>
+      </c>
+      <c r="D59" s="62">
+        <v>255</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="65">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="C60" s="44" t="s">
         <v>494</v>
       </c>
       <c r="D60" s="62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F60" s="59" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="D61" s="62">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F61" s="59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="31.5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="65">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D62" s="62">
-        <v>2</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="D62" s="62"/>
       <c r="E62" s="1" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="F62" s="59" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="55">
-        <v>10</v>
+      <c r="A63" s="65">
+        <v>9</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="C63" s="44" t="s">
         <v>494</v>
       </c>
       <c r="D63" s="62">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F63" s="59" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4">
-        <v>11</v>
+      <c r="A64" s="65">
+        <v>10</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C64" s="44" t="s">
         <v>494</v>
       </c>
       <c r="D64" s="62">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F64" s="59" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="55">
-        <v>12</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="31.5">
+      <c r="A65" s="65">
+        <v>11</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>494</v>
+        <v>439</v>
       </c>
       <c r="D65" s="62">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="F65" s="59" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="55">
-        <v>18</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D66" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D66" s="62">
+        <v>255</v>
+      </c>
       <c r="E66" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>441</v>
+        <v>453</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4">
-        <v>19</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D67" s="61"/>
+        <v>11</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D67" s="62">
+        <v>50</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="55">
+        <v>12</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D68" s="62">
+        <v>255</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="55">
+        <v>18</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D70" s="61"/>
+      <c r="E70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="15" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="15" t="s">
+    <row r="72" spans="1:7">
+      <c r="A72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="15" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="54" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="54" t="s">
+      <c r="B74" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C74" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D74" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E74" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="F71" s="58" t="s">
+      <c r="F74" s="58" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="4">
+    <row r="75" spans="1:7">
+      <c r="A75" s="4">
         <v>1</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D72" s="61">
+      <c r="D75" s="61">
         <v>8</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="65">
+      <c r="F75" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="65">
         <v>2</v>
       </c>
-      <c r="B73" s="66" t="s">
+      <c r="B76" s="66" t="s">
         <v>513</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D73" s="61">
+      <c r="D76" s="61">
         <v>8</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="4">
+    <row r="77" spans="1:7">
+      <c r="A77" s="4">
         <v>3</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B77" s="44" t="s">
         <v>574</v>
-      </c>
-      <c r="C74" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D74" s="62">
-        <v>2</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>719</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="65">
-        <v>4</v>
-      </c>
-      <c r="B75" s="66" t="s">
-        <v>628</v>
-      </c>
-      <c r="C75" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D75" s="62">
-        <v>2</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F75" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="4">
-        <v>5</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D76" s="62">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F76" s="59" t="s">
-        <v>566</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="65">
-        <v>6</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>508</v>
       </c>
       <c r="C77" s="44" t="s">
         <v>439</v>
@@ -28994,1018 +29232,1033 @@
         <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="F77" s="59" t="s">
-        <v>509</v>
+        <v>716</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="4">
-        <v>7</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>511</v>
+      <c r="A78" s="65">
+        <v>4</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>628</v>
       </c>
       <c r="C78" s="44" t="s">
         <v>439</v>
       </c>
       <c r="D78" s="62">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>804</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="4">
+        <v>5</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D79" s="62">
         <v>8</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="65">
+        <v>6</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D80" s="62">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F78" s="59" t="s">
-        <v>755</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="121">
+      <c r="F80" s="59" t="s">
+        <v>509</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="4">
+        <v>7</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D81" s="62">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="116">
         <v>9</v>
       </c>
-      <c r="B79" s="109" t="s">
+      <c r="B82" s="106" t="s">
         <v>510</v>
       </c>
-      <c r="C79" s="109" t="s">
+      <c r="C82" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="D79" s="110">
+      <c r="D82" s="107">
         <v>8</v>
       </c>
-      <c r="E79" s="109" t="s">
+      <c r="E82" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F79" s="102" t="s">
-        <v>769</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="16" customFormat="1">
-      <c r="A80" s="108">
-        <v>10</v>
-      </c>
-      <c r="B80" s="113" t="s">
-        <v>638</v>
-      </c>
-      <c r="C80" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="D80" s="114">
-        <v>8</v>
-      </c>
-      <c r="E80" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F80" s="140" t="s">
-        <v>718</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="16" customFormat="1">
-      <c r="A81" s="121">
-        <v>11</v>
-      </c>
-      <c r="B81" s="112" t="s">
-        <v>750</v>
-      </c>
-      <c r="C81" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="D81" s="114">
-        <v>8</v>
-      </c>
-      <c r="E81" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F81" s="115" t="s">
-        <v>752</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="16" customFormat="1">
-      <c r="A82" s="108">
-        <v>12</v>
-      </c>
-      <c r="B82" s="112" t="s">
-        <v>751</v>
-      </c>
-      <c r="C82" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="D82" s="114">
-        <v>8</v>
-      </c>
-      <c r="E82" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F82" s="115" t="s">
-        <v>753</v>
+      <c r="F82" s="102" t="s">
+        <v>766</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="121">
+    <row r="83" spans="1:7" s="16" customFormat="1">
+      <c r="A83" s="105">
+        <v>10</v>
+      </c>
+      <c r="B83" s="110" t="s">
+        <v>638</v>
+      </c>
+      <c r="C83" s="110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D83" s="111">
+        <v>8</v>
+      </c>
+      <c r="E83" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F83" s="135" t="s">
+        <v>715</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="16" customFormat="1">
+      <c r="A84" s="116">
+        <v>11</v>
+      </c>
+      <c r="B84" s="109" t="s">
+        <v>747</v>
+      </c>
+      <c r="C84" s="110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D84" s="111">
+        <v>8</v>
+      </c>
+      <c r="E84" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F84" s="112" t="s">
+        <v>749</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="16" customFormat="1">
+      <c r="A85" s="105">
+        <v>12</v>
+      </c>
+      <c r="B85" s="109" t="s">
+        <v>748</v>
+      </c>
+      <c r="C85" s="110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D85" s="111">
+        <v>8</v>
+      </c>
+      <c r="E85" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F85" s="112" t="s">
+        <v>750</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="116">
         <v>13</v>
       </c>
-      <c r="B83" s="109" t="s">
-        <v>722</v>
-      </c>
-      <c r="C83" s="109" t="s">
+      <c r="B86" s="106" t="s">
+        <v>719</v>
+      </c>
+      <c r="C86" s="106" t="s">
         <v>605</v>
       </c>
-      <c r="D83" s="110"/>
-      <c r="E83" s="109" t="s">
+      <c r="D86" s="107"/>
+      <c r="E86" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F83" s="111" t="s">
-        <v>723</v>
-      </c>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="31.5">
-      <c r="A84" s="108">
+      <c r="F86" s="108" t="s">
+        <v>720</v>
+      </c>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" ht="31.5">
+      <c r="A87" s="105">
         <v>14</v>
       </c>
-      <c r="B84" s="109" t="s">
-        <v>737</v>
-      </c>
-      <c r="C84" s="109" t="s">
+      <c r="B87" s="106" t="s">
+        <v>734</v>
+      </c>
+      <c r="C87" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="D84" s="110">
+      <c r="D87" s="107">
         <v>8</v>
       </c>
-      <c r="E84" s="109" t="s">
+      <c r="E87" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F84" s="115" t="s">
-        <v>738</v>
-      </c>
-      <c r="G84" s="16"/>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="65">
+      <c r="F87" s="112" t="s">
+        <v>735</v>
+      </c>
+      <c r="G87" s="16"/>
+    </row>
+    <row r="88" spans="1:7" s="157" customFormat="1" ht="31.5">
+      <c r="A88" s="153">
         <v>15</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B88" s="154" t="s">
+        <v>802</v>
+      </c>
+      <c r="C88" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="D88" s="155">
+        <v>255</v>
+      </c>
+      <c r="E88" s="154" t="s">
+        <v>436</v>
+      </c>
+      <c r="F88" s="156" t="s">
+        <v>806</v>
+      </c>
+      <c r="G88" s="157" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="65">
+        <v>16</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="1" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="4">
-        <v>16</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="90" spans="1:7">
+      <c r="A90" s="4">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="1" t="s">
+      <c r="D90" s="61"/>
+      <c r="E90" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="15" t="s">
+    <row r="91" spans="1:7">
+      <c r="A91" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="15" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="15" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="54" t="s">
+    <row r="94" spans="1:7">
+      <c r="A94" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B94" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C94" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D94" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E90" s="56" t="s">
+      <c r="E94" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="F90" s="58" t="s">
+      <c r="F94" s="58" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="4">
-        <v>1</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D91" s="61">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="65">
-        <v>2</v>
-      </c>
-      <c r="B92" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D92" s="61">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="4">
-        <v>3</v>
-      </c>
-      <c r="B93" s="44" t="s">
-        <v>574</v>
-      </c>
-      <c r="C93" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D93" s="62">
-        <v>2</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F93" s="59" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="65">
-        <v>4</v>
-      </c>
-      <c r="B94" s="66" t="s">
-        <v>628</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D94" s="62">
-        <v>2</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F94" s="67" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4">
-        <v>5</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D95" s="62"/>
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D95" s="61">
+        <v>8</v>
+      </c>
       <c r="E95" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F95" s="59" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="31.5">
+        <v>436</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="65">
-        <v>6</v>
-      </c>
-      <c r="B96" s="44" t="s">
-        <v>512</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D96" s="62">
         <v>2</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>513</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D96" s="61">
+        <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F96" s="59" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="F96" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="4">
-        <v>7</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D97" s="61"/>
+        <v>3</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="C97" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" s="62">
+        <v>2</v>
+      </c>
       <c r="E97" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>453</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="65">
-        <v>8</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D98" s="61"/>
+        <v>4</v>
+      </c>
+      <c r="B98" s="66" t="s">
+        <v>628</v>
+      </c>
+      <c r="C98" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D98" s="62">
+        <v>2</v>
+      </c>
       <c r="E98" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="67" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="4">
+        <v>5</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D99" s="62"/>
+      <c r="E99" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F99" s="59" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="31.5">
+      <c r="A100" s="65">
+        <v>6</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D100" s="62">
+        <v>2</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F100" s="59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="157" customFormat="1" ht="31.5">
+      <c r="A101" s="153">
+        <v>7</v>
+      </c>
+      <c r="B101" s="154" t="s">
+        <v>802</v>
+      </c>
+      <c r="C101" s="154" t="s">
+        <v>794</v>
+      </c>
+      <c r="D101" s="155">
+        <v>255</v>
+      </c>
+      <c r="E101" s="154" t="s">
+        <v>436</v>
+      </c>
+      <c r="F101" s="156" t="s">
+        <v>805</v>
+      </c>
+      <c r="G101" s="157" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="4">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D102" s="61"/>
+      <c r="E102" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="65">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D103" s="61"/>
+      <c r="E103" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F103" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="15" t="s">
+    <row r="104" spans="1:7">
+      <c r="A104" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="15" t="s">
+    <row r="106" spans="1:7">
+      <c r="A106" s="15" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="54" t="s">
+    <row r="107" spans="1:7">
+      <c r="A107" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B102" s="54" t="s">
+      <c r="B107" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C102" s="54" t="s">
+      <c r="C107" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="D102" s="54" t="s">
+      <c r="D107" s="54" t="s">
         <v>502</v>
       </c>
-      <c r="E102" s="56" t="s">
+      <c r="E107" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="F102" s="58" t="s">
+      <c r="F107" s="58" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="4">
+    <row r="108" spans="1:7">
+      <c r="A108" s="4">
         <v>1</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D103" s="61">
+      <c r="D108" s="61">
         <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="4">
-        <v>2</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D104" s="61">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" s="16" customFormat="1">
-      <c r="A105" s="108">
-        <v>3</v>
-      </c>
-      <c r="B105" s="109" t="s">
-        <v>608</v>
-      </c>
-      <c r="C105" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D105" s="110">
-        <v>8</v>
-      </c>
-      <c r="E105" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F105" s="115" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="4">
-        <v>4</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C106" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D106" s="62">
-        <v>50</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="4">
-        <v>5</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C107" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D107" s="62">
-        <v>255</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="4">
-        <v>6</v>
-      </c>
-      <c r="B108" s="44" t="s">
-        <v>461</v>
-      </c>
-      <c r="C108" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D108" s="62">
-        <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F108" s="59" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108" s="5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D109" s="61"/>
+        <v>435</v>
+      </c>
+      <c r="D109" s="61">
+        <v>8</v>
+      </c>
       <c r="E109" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F109" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="16" customFormat="1">
+      <c r="A110" s="105">
+        <v>3</v>
+      </c>
+      <c r="B110" s="106" t="s">
+        <v>608</v>
+      </c>
+      <c r="C110" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" s="107">
+        <v>8</v>
+      </c>
+      <c r="E110" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F110" s="112" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="4">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C111" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D111" s="62">
+        <v>50</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="4">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C112" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D112" s="62">
+        <v>255</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4">
+        <v>6</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C113" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D113" s="62">
+        <v>2</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F113" s="59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="4">
+        <v>7</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D114" s="61"/>
+      <c r="E114" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="4">
-        <v>8</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D110" s="61"/>
-      <c r="E110" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="15" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C114" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="D114" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="E114" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="F114" s="58" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="4">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D115" s="61"/>
+      <c r="E115" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="D119" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="E119" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="F119" s="58" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="4">
         <v>1</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D115" s="61">
+      <c r="D120" s="61">
         <v>8</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F120" s="5" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="55">
-        <v>2</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D116" s="61">
-        <v>8</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="4">
-        <v>3</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D117" s="61">
-        <v>8</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="55">
-        <v>4</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C118" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D118" s="62">
-        <v>50</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="121">
-        <v>5</v>
-      </c>
-      <c r="B119" s="109" t="s">
-        <v>685</v>
-      </c>
-      <c r="C119" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D119" s="110">
-        <v>8</v>
-      </c>
-      <c r="E119" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="F119" s="115" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="16" customFormat="1">
-      <c r="A120" s="108">
-        <v>6</v>
-      </c>
-      <c r="B120" s="109" t="s">
-        <v>686</v>
-      </c>
-      <c r="C120" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D120" s="114">
-        <v>50</v>
-      </c>
-      <c r="E120" s="109" t="s">
-        <v>453</v>
-      </c>
-      <c r="F120" s="111" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="55">
-        <v>7</v>
-      </c>
-      <c r="B121" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C121" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D121" s="62">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D121" s="61">
+        <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="4">
+        <v>3</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D122" s="61">
         <v>8</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D122" s="62">
-        <v>255</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" s="16" customFormat="1" ht="31.5">
-      <c r="A123" s="141">
-        <v>9</v>
-      </c>
-      <c r="B123" s="113" t="s">
-        <v>746</v>
-      </c>
-      <c r="C123" s="113" t="s">
-        <v>439</v>
-      </c>
-      <c r="D123" s="114">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="55">
+        <v>4</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D123" s="62">
+        <v>50</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="116">
+        <v>5</v>
+      </c>
+      <c r="B124" s="106" t="s">
+        <v>683</v>
+      </c>
+      <c r="C124" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D124" s="107">
         <v>8</v>
       </c>
-      <c r="E123" s="109" t="s">
+      <c r="E124" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F123" s="140" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="4">
-        <v>10</v>
-      </c>
-      <c r="B124" s="66" t="s">
-        <v>745</v>
-      </c>
-      <c r="C124" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D124" s="62">
-        <v>2</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F124" s="67" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="55">
-        <v>11</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="C125" s="44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D125" s="62">
-        <v>2</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F125" s="59" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="47.25">
-      <c r="A126" s="4">
-        <v>12</v>
+      <c r="F124" s="112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="16" customFormat="1">
+      <c r="A125" s="105">
+        <v>6</v>
+      </c>
+      <c r="B125" s="106" t="s">
+        <v>684</v>
+      </c>
+      <c r="C125" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D125" s="111">
+        <v>50</v>
+      </c>
+      <c r="E125" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="F125" s="108" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="55">
+        <v>7</v>
       </c>
       <c r="B126" s="44" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="D126" s="62">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F126" s="59" t="s">
-        <v>774</v>
+      <c r="F126" s="5" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="55">
-        <v>13</v>
+      <c r="A127" s="4">
+        <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D127" s="61"/>
+        <v>465</v>
+      </c>
+      <c r="C127" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D127" s="62">
+        <v>255</v>
+      </c>
       <c r="E127" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F127" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" s="16" customFormat="1" ht="31.5">
+      <c r="A128" s="136">
+        <v>9</v>
+      </c>
+      <c r="B128" s="110" t="s">
+        <v>743</v>
+      </c>
+      <c r="C128" s="110" t="s">
+        <v>439</v>
+      </c>
+      <c r="D128" s="111">
+        <v>8</v>
+      </c>
+      <c r="E128" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F128" s="135" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="4">
+        <v>10</v>
+      </c>
+      <c r="B129" s="66" t="s">
+        <v>742</v>
+      </c>
+      <c r="C129" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D129" s="62">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F129" s="67" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="31.5">
+      <c r="A130" s="55">
+        <v>11</v>
+      </c>
+      <c r="B130" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C130" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D130" s="62">
+        <v>2</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F130" s="59" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="47.25">
+      <c r="A131" s="4">
+        <v>12</v>
+      </c>
+      <c r="B131" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C131" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="D131" s="62">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F131" s="59" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="55">
+        <v>13</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D132" s="61"/>
+      <c r="E132" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="4">
-        <v>14</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D128" s="61"/>
-      <c r="E128" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C132" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="D132" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="E132" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="F132" s="58" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>433</v>
+        <v>531</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D133" s="61">
-        <v>8</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D133" s="61"/>
       <c r="E133" s="1" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="4">
-        <v>2</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D134" s="61">
-        <v>8</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="4">
-        <v>3</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D135" s="61">
-        <v>8</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>630</v>
+      <c r="A134" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="4">
-        <v>4</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D136" s="61">
-        <v>8</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>535</v>
+      <c r="A136" s="15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4">
-        <v>5</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D137" s="61">
-        <v>8</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>536</v>
+      <c r="A137" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C137" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="E137" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="F137" s="58" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>540</v>
+        <v>433</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>435</v>
@@ -30017,15 +30270,15 @@
         <v>436</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>435</v>
@@ -30037,15 +30290,15 @@
         <v>436</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>543</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>435</v>
@@ -30057,15 +30310,15 @@
         <v>436</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>544</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="4">
-        <v>9</v>
-      </c>
-      <c r="B141" s="66" t="s">
-        <v>510</v>
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>435</v>
@@ -30076,284 +30329,284 @@
       <c r="E141" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F141" s="67" t="s">
-        <v>617</v>
+      <c r="F141" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C142" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D142" s="62">
-        <v>160</v>
+        <v>525</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" s="61">
+        <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" s="16" customFormat="1">
-      <c r="A143" s="121">
-        <v>11</v>
-      </c>
-      <c r="B143" s="109" t="s">
-        <v>685</v>
-      </c>
-      <c r="C143" s="109" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="4">
+        <v>6</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D143" s="110">
+      <c r="D143" s="61">
         <v>8</v>
       </c>
-      <c r="E143" s="109" t="s">
+      <c r="E143" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F143" s="115" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" s="16" customFormat="1">
-      <c r="A144" s="121">
-        <v>12</v>
-      </c>
-      <c r="B144" s="109" t="s">
-        <v>686</v>
-      </c>
-      <c r="C144" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D144" s="114">
-        <v>50</v>
-      </c>
-      <c r="E144" s="109" t="s">
-        <v>453</v>
-      </c>
-      <c r="F144" s="111" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" s="16" customFormat="1">
-      <c r="A145" s="108">
-        <v>13</v>
-      </c>
-      <c r="B145" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="C145" s="109" t="s">
-        <v>614</v>
-      </c>
-      <c r="D145" s="110">
-        <v>2</v>
-      </c>
-      <c r="E145" s="109" t="s">
+      <c r="F143" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="4">
+        <v>7</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D144" s="61">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F145" s="111" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="16" customFormat="1">
-      <c r="A146" s="108">
-        <v>14</v>
-      </c>
-      <c r="B146" s="112" t="s">
-        <v>679</v>
-      </c>
-      <c r="C146" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D146" s="114">
-        <v>10</v>
-      </c>
-      <c r="E146" s="109" t="s">
+      <c r="F144" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="4">
+        <v>8</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D145" s="61">
+        <v>8</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F146" s="115" t="s">
-        <v>682</v>
+      <c r="F145" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="4">
+        <v>9</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D146" s="61">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F146" s="67" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D147" s="61">
-        <v>8</v>
+        <v>465</v>
+      </c>
+      <c r="C147" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D147" s="62">
+        <v>160</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F147" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" s="16" customFormat="1">
+      <c r="A148" s="116">
+        <v>11</v>
+      </c>
+      <c r="B148" s="106" t="s">
+        <v>683</v>
+      </c>
+      <c r="C148" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D148" s="107">
+        <v>8</v>
+      </c>
+      <c r="E148" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F148" s="112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" s="16" customFormat="1">
+      <c r="A149" s="116">
+        <v>12</v>
+      </c>
+      <c r="B149" s="106" t="s">
+        <v>684</v>
+      </c>
+      <c r="C149" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" s="111">
+        <v>50</v>
+      </c>
+      <c r="E149" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="F149" s="108" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="16" customFormat="1">
+      <c r="A150" s="105">
+        <v>13</v>
+      </c>
+      <c r="B150" s="106" t="s">
+        <v>568</v>
+      </c>
+      <c r="C150" s="106" t="s">
+        <v>614</v>
+      </c>
+      <c r="D150" s="107">
+        <v>2</v>
+      </c>
+      <c r="E150" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F150" s="108" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="16" customFormat="1">
+      <c r="A151" s="105">
+        <v>14</v>
+      </c>
+      <c r="B151" s="109" t="s">
+        <v>677</v>
+      </c>
+      <c r="C151" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D151" s="111">
+        <v>10</v>
+      </c>
+      <c r="E151" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="F151" s="112" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="4">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D152" s="61">
+        <v>8</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="4">
-        <v>16</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="15" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152" s="54" t="s">
-        <v>430</v>
-      </c>
-      <c r="C152" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="D152" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="E152" s="56" t="s">
-        <v>432</v>
-      </c>
-      <c r="F152" s="58" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>433</v>
+        <v>530</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D153" s="61">
-        <v>8</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="D153" s="61"/>
       <c r="E153" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4">
-        <v>2</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D154" s="61">
-        <v>8</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="4">
-        <v>3</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D155" s="61">
-        <v>8</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>630</v>
+      <c r="A154" s="15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4">
-        <v>4</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D156" s="61">
-        <v>8</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F156" s="5" t="s">
-        <v>535</v>
+      <c r="A156" s="15" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4">
-        <v>5</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D157" s="61">
-        <v>8</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F157" s="5" t="s">
-        <v>536</v>
+      <c r="A157" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="54" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" s="54" t="s">
+        <v>431</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="E157" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="F157" s="58" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>554</v>
+        <v>433</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>435</v>
@@ -30365,95 +30618,95 @@
         <v>436</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="4">
-        <v>7</v>
-      </c>
-      <c r="B159" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="C159" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D159" s="62">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D159" s="61">
+        <v>8</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F159" s="59" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" s="16" customFormat="1">
-      <c r="A160" s="108">
+      <c r="F159" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="4">
+        <v>3</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D160" s="61">
         <v>8</v>
       </c>
-      <c r="B160" s="109" t="s">
-        <v>568</v>
-      </c>
-      <c r="C160" s="109" t="s">
-        <v>614</v>
-      </c>
-      <c r="D160" s="110">
-        <v>2</v>
-      </c>
-      <c r="E160" s="109" t="s">
+      <c r="E160" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F160" s="111" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" s="16" customFormat="1">
-      <c r="A161" s="108">
-        <v>9</v>
-      </c>
-      <c r="B161" s="112" t="s">
-        <v>679</v>
-      </c>
-      <c r="C161" s="113" t="s">
-        <v>494</v>
-      </c>
-      <c r="D161" s="114">
-        <v>10</v>
-      </c>
-      <c r="E161" s="109" t="s">
+      <c r="F160" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="4">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D161" s="61">
+        <v>8</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F161" s="115" t="s">
-        <v>681</v>
+      <c r="F161" s="5" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="4">
-        <v>10</v>
-      </c>
-      <c r="B162" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="C162" s="44" t="s">
-        <v>494</v>
-      </c>
-      <c r="D162" s="62">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D162" s="61">
+        <v>8</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F162" s="59" t="s">
-        <v>571</v>
+      <c r="F162" s="5" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>435</v>
@@ -30465,109 +30718,209 @@
         <v>436</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="4">
-        <v>12</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D164" s="61">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B164" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="C164" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D164" s="62">
+        <v>20</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="4">
-        <v>13</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D165" s="61">
+      <c r="F164" s="59" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" s="16" customFormat="1">
+      <c r="A165" s="105">
         <v>8</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="B165" s="106" t="s">
+        <v>568</v>
+      </c>
+      <c r="C165" s="106" t="s">
+        <v>614</v>
+      </c>
+      <c r="D165" s="107">
+        <v>2</v>
+      </c>
+      <c r="E165" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F165" s="5" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="4">
-        <v>14</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D166" s="61">
-        <v>8</v>
-      </c>
-      <c r="E166" s="1" t="s">
+      <c r="F165" s="108" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" s="16" customFormat="1">
+      <c r="A166" s="105">
+        <v>9</v>
+      </c>
+      <c r="B166" s="109" t="s">
+        <v>677</v>
+      </c>
+      <c r="C166" s="110" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="111">
+        <v>10</v>
+      </c>
+      <c r="E166" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>564</v>
+      <c r="F166" s="112" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="4">
-        <v>15</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D167" s="61">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B167" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="C167" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="D167" s="62">
+        <v>20</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>548</v>
+      <c r="F167" s="59" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="4">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D168" s="61"/>
+        <v>435</v>
+      </c>
+      <c r="D168" s="61">
+        <v>8</v>
+      </c>
       <c r="E168" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F168" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="4">
+        <v>12</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D169" s="61">
+        <v>8</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="4">
+        <v>13</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D170" s="61">
+        <v>8</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="4">
+        <v>14</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D171" s="61">
+        <v>8</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="4">
+        <v>15</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D172" s="61">
+        <v>8</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="4">
+        <v>16</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D173" s="61"/>
+      <c r="E173" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="15" t="s">
+    <row r="174" spans="1:6">
+      <c r="A174" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -30587,151 +30940,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="142"/>
-    <col min="2" max="2" width="73" style="131" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" style="131" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="128"/>
+    <col min="1" max="1" width="9.140625" style="137"/>
+    <col min="2" max="2" width="73" style="126" customWidth="1"/>
+    <col min="3" max="3" width="61.28515625" style="126" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="123"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145" t="s">
-        <v>763</v>
-      </c>
-      <c r="C1" s="145" t="s">
-        <v>762</v>
+      <c r="B1" s="140" t="s">
+        <v>760</v>
+      </c>
+      <c r="C1" s="140" t="s">
+        <v>759</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="31.5">
-      <c r="A2" s="144">
+      <c r="A2" s="139">
         <v>1</v>
       </c>
-      <c r="B2" s="146" t="s">
-        <v>671</v>
-      </c>
-      <c r="C2" s="146" t="s">
-        <v>767</v>
+      <c r="B2" s="141" t="s">
+        <v>669</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>764</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="144">
+      <c r="A3" s="139">
         <v>2</v>
       </c>
-      <c r="B3" s="146" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" s="146" t="s">
-        <v>761</v>
+      <c r="B3" s="141" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>758</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="31.5">
-      <c r="A4" s="144">
+      <c r="A4" s="139">
         <v>3</v>
       </c>
-      <c r="B4" s="146" t="s">
-        <v>684</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>759</v>
+      <c r="B4" s="141" t="s">
+        <v>682</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>756</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="31.5">
-      <c r="A5" s="144">
+      <c r="A5" s="139">
         <v>4</v>
       </c>
-      <c r="B5" s="146" t="s">
-        <v>701</v>
-      </c>
-      <c r="C5" s="146" t="s">
-        <v>760</v>
+      <c r="B5" s="141" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="141" t="s">
+        <v>757</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="63">
-      <c r="A6" s="144">
+      <c r="A6" s="139">
         <v>5</v>
       </c>
-      <c r="B6" s="146" t="s">
-        <v>700</v>
-      </c>
-      <c r="C6" s="147" t="s">
-        <v>764</v>
+      <c r="B6" s="141" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="142" t="s">
+        <v>761</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="31.5">
-      <c r="A7" s="144">
+      <c r="A7" s="139">
         <v>6</v>
       </c>
-      <c r="B7" s="146" t="s">
-        <v>703</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>756</v>
+      <c r="B7" s="141" t="s">
+        <v>700</v>
+      </c>
+      <c r="C7" s="143" t="s">
+        <v>753</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="31.5">
-      <c r="A8" s="144">
+      <c r="A8" s="139">
         <v>7</v>
       </c>
-      <c r="B8" s="146" t="s">
-        <v>706</v>
-      </c>
-      <c r="C8" s="146" t="s">
-        <v>757</v>
+      <c r="B8" s="141" t="s">
+        <v>703</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>754</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="31.5">
-      <c r="A9" s="144">
+      <c r="A9" s="139">
         <v>8</v>
       </c>
-      <c r="B9" s="146" t="s">
-        <v>731</v>
-      </c>
-      <c r="C9" s="146" t="s">
-        <v>758</v>
+      <c r="B9" s="141" t="s">
+        <v>728</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>755</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="144">
+      <c r="A10" s="139">
         <v>9</v>
       </c>
-      <c r="B10" s="146" t="s">
-        <v>732</v>
-      </c>
-      <c r="C10" s="146" t="s">
-        <v>765</v>
+      <c r="B10" s="141" t="s">
+        <v>729</v>
+      </c>
+      <c r="C10" s="141" t="s">
+        <v>762</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="144">
+      <c r="A11" s="139">
         <v>10</v>
       </c>
-      <c r="B11" s="149" t="s">
-        <v>742</v>
-      </c>
-      <c r="C11" s="149" t="s">
-        <v>766</v>
+      <c r="B11" s="144" t="s">
+        <v>739</v>
+      </c>
+      <c r="C11" s="144" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/reque/SMS_Gateway_Requirements_20171110.xlsx
+++ b/reque/SMS_Gateway_Requirements_20171110.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMS_Gateway\Requirement_20171105\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMS_Gateway\code_sms_gateway\reque\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="808">
   <si>
     <t>No.</t>
   </si>
@@ -2544,6 +2544,9 @@
   </si>
   <si>
     <t>Cài đặt chi phí 1 SMS tương ứng với từng nhà mạng (cộng vào tài khoản khi gửi SMS thành công)</t>
+  </si>
+  <si>
+    <t>KHKH</t>
   </si>
 </sst>
 </file>
@@ -18433,6 +18436,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18445,17 +18460,44 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="261" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -18466,64 +18508,25 @@
     <xf numFmtId="0" fontId="261" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="96" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="96" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="97" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24277,25 +24280,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.75" customHeight="1">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="158" t="s">
         <v>487</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165" t="s">
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165" t="s">
+      <c r="G1" s="161"/>
+      <c r="H1" s="161" t="s">
         <v>477</v>
       </c>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165" t="s">
+      <c r="I1" s="161"/>
+      <c r="J1" s="161" t="s">
         <v>657</v>
       </c>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165" t="s">
+      <c r="K1" s="161"/>
+      <c r="L1" s="161" t="s">
         <v>428</v>
       </c>
     </row>
@@ -24331,7 +24334,7 @@
       <c r="K2" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="L2" s="165"/>
+      <c r="L2" s="161"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="11"/>
@@ -24428,7 +24431,7 @@
       <c r="B6" s="50">
         <v>4</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="165" t="s">
         <v>482</v>
       </c>
       <c r="D6" s="115" t="s">
@@ -24458,7 +24461,7 @@
       <c r="B7" s="50">
         <v>5</v>
       </c>
-      <c r="C7" s="160"/>
+      <c r="C7" s="164"/>
       <c r="D7" s="115" t="s">
         <v>702</v>
       </c>
@@ -24486,7 +24489,7 @@
       <c r="B8" s="50">
         <v>6</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="78" t="s">
         <v>675</v>
       </c>
@@ -24512,7 +24515,7 @@
     <row r="9" spans="1:12" s="14" customFormat="1">
       <c r="A9" s="11"/>
       <c r="B9" s="79"/>
-      <c r="C9" s="160"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="78" t="s">
         <v>783</v>
       </c>
@@ -24540,7 +24543,7 @@
       <c r="B10" s="50">
         <v>7</v>
       </c>
-      <c r="C10" s="160"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="115" t="s">
         <v>674</v>
       </c>
@@ -24568,7 +24571,7 @@
       <c r="B11" s="50">
         <v>8</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="165" t="s">
         <v>484</v>
       </c>
       <c r="D11" s="82" t="s">
@@ -24598,7 +24601,7 @@
       <c r="B12" s="50">
         <v>9</v>
       </c>
-      <c r="C12" s="160"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="76" t="s">
         <v>661</v>
       </c>
@@ -24626,7 +24629,7 @@
       <c r="B13" s="50">
         <v>10</v>
       </c>
-      <c r="C13" s="160"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="82" t="s">
         <v>635</v>
       </c>
@@ -24654,7 +24657,7 @@
       <c r="B14" s="50">
         <v>11</v>
       </c>
-      <c r="C14" s="160"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="76" t="s">
         <v>636</v>
       </c>
@@ -24682,7 +24685,7 @@
       <c r="B15" s="50">
         <v>12</v>
       </c>
-      <c r="C15" s="160"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="75" t="s">
         <v>558</v>
       </c>
@@ -24710,7 +24713,7 @@
       <c r="B16" s="50">
         <v>13</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="164"/>
       <c r="D16" s="75" t="s">
         <v>559</v>
       </c>
@@ -24737,7 +24740,7 @@
       <c r="B17" s="50">
         <v>14</v>
       </c>
-      <c r="C17" s="160"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="101" t="s">
         <v>673</v>
       </c>
@@ -24765,7 +24768,7 @@
       <c r="B18" s="50">
         <v>15</v>
       </c>
-      <c r="C18" s="160"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="93" t="s">
         <v>671</v>
       </c>
@@ -24793,7 +24796,7 @@
       <c r="B19" s="50">
         <v>16</v>
       </c>
-      <c r="C19" s="160"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="93" t="s">
         <v>672</v>
       </c>
@@ -24821,7 +24824,7 @@
       <c r="B20" s="50">
         <v>17</v>
       </c>
-      <c r="C20" s="160"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="75" t="s">
         <v>575</v>
       </c>
@@ -24849,7 +24852,7 @@
       <c r="B21" s="50">
         <v>18</v>
       </c>
-      <c r="C21" s="160"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="75" t="s">
         <v>576</v>
       </c>
@@ -24877,7 +24880,7 @@
       <c r="B22" s="50">
         <v>19</v>
       </c>
-      <c r="C22" s="160"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="75" t="s">
         <v>577</v>
       </c>
@@ -24905,7 +24908,7 @@
       <c r="B23" s="50">
         <v>20</v>
       </c>
-      <c r="C23" s="160"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="75" t="s">
         <v>578</v>
       </c>
@@ -24933,7 +24936,7 @@
       <c r="B24" s="50">
         <v>21</v>
       </c>
-      <c r="C24" s="160"/>
+      <c r="C24" s="164"/>
       <c r="D24" s="75" t="s">
         <v>579</v>
       </c>
@@ -24959,7 +24962,7 @@
     <row r="25" spans="1:12" s="14" customFormat="1">
       <c r="A25" s="11"/>
       <c r="B25" s="79"/>
-      <c r="C25" s="160"/>
+      <c r="C25" s="164"/>
       <c r="D25" s="148" t="s">
         <v>731</v>
       </c>
@@ -24986,7 +24989,7 @@
       <c r="B26" s="50">
         <v>22</v>
       </c>
-      <c r="C26" s="160"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="148" t="s">
         <v>784</v>
       </c>
@@ -25013,7 +25016,7 @@
       <c r="B27" s="50">
         <v>23</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="165" t="s">
         <v>483</v>
       </c>
       <c r="D27" s="78" t="s">
@@ -25042,7 +25045,7 @@
       <c r="B28" s="50">
         <v>24</v>
       </c>
-      <c r="C28" s="160"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="78" t="s">
         <v>425</v>
       </c>
@@ -25069,7 +25072,7 @@
       <c r="B29" s="50">
         <v>25</v>
       </c>
-      <c r="C29" s="160"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="78" t="s">
         <v>427</v>
       </c>
@@ -25096,7 +25099,7 @@
       <c r="B30" s="50">
         <v>26</v>
       </c>
-      <c r="C30" s="160"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="78" t="s">
         <v>489</v>
       </c>
@@ -25123,7 +25126,7 @@
       <c r="B31" s="50">
         <v>27</v>
       </c>
-      <c r="C31" s="160"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="75" t="s">
         <v>558</v>
       </c>
@@ -25150,7 +25153,7 @@
       <c r="B32" s="50">
         <v>28</v>
       </c>
-      <c r="C32" s="160"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="101" t="s">
         <v>673</v>
       </c>
@@ -25177,7 +25180,7 @@
       <c r="B33" s="50">
         <v>29</v>
       </c>
-      <c r="C33" s="160"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="75" t="s">
         <v>575</v>
       </c>
@@ -25204,7 +25207,7 @@
       <c r="B34" s="50">
         <v>30</v>
       </c>
-      <c r="C34" s="160"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="75" t="s">
         <v>576</v>
       </c>
@@ -25231,7 +25234,7 @@
       <c r="B35" s="50">
         <v>31</v>
       </c>
-      <c r="C35" s="160"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="75" t="s">
         <v>577</v>
       </c>
@@ -25258,7 +25261,7 @@
       <c r="B36" s="50">
         <v>32</v>
       </c>
-      <c r="C36" s="160"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="75" t="s">
         <v>578</v>
       </c>
@@ -25285,7 +25288,7 @@
       <c r="B37" s="50">
         <v>33</v>
       </c>
-      <c r="C37" s="160"/>
+      <c r="C37" s="164"/>
       <c r="D37" s="76" t="s">
         <v>579</v>
       </c>
@@ -25312,7 +25315,7 @@
       <c r="B38" s="50">
         <v>34</v>
       </c>
-      <c r="C38" s="160"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="76" t="s">
         <v>581</v>
       </c>
@@ -25339,7 +25342,7 @@
       <c r="B39" s="50">
         <v>35</v>
       </c>
-      <c r="C39" s="159" t="s">
+      <c r="C39" s="163" t="s">
         <v>485</v>
       </c>
       <c r="D39" s="78" t="s">
@@ -25368,7 +25371,7 @@
       <c r="B40" s="50">
         <v>36</v>
       </c>
-      <c r="C40" s="160"/>
+      <c r="C40" s="164"/>
       <c r="D40" s="78" t="s">
         <v>425</v>
       </c>
@@ -25395,7 +25398,7 @@
       <c r="B41" s="50">
         <v>37</v>
       </c>
-      <c r="C41" s="160"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="93" t="s">
         <v>671</v>
       </c>
@@ -25422,7 +25425,7 @@
       <c r="B42" s="50">
         <v>38</v>
       </c>
-      <c r="C42" s="160"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="93" t="s">
         <v>672</v>
       </c>
@@ -25449,7 +25452,7 @@
       <c r="B43" s="50">
         <v>39</v>
       </c>
-      <c r="C43" s="160"/>
+      <c r="C43" s="164"/>
       <c r="D43" s="75" t="s">
         <v>575</v>
       </c>
@@ -25476,7 +25479,7 @@
       <c r="B44" s="50">
         <v>40</v>
       </c>
-      <c r="C44" s="160"/>
+      <c r="C44" s="164"/>
       <c r="D44" s="75" t="s">
         <v>576</v>
       </c>
@@ -25503,7 +25506,7 @@
       <c r="B45" s="50">
         <v>41</v>
       </c>
-      <c r="C45" s="160"/>
+      <c r="C45" s="164"/>
       <c r="D45" s="75" t="s">
         <v>577</v>
       </c>
@@ -25530,7 +25533,7 @@
       <c r="B46" s="50">
         <v>42</v>
       </c>
-      <c r="C46" s="160"/>
+      <c r="C46" s="164"/>
       <c r="D46" s="75" t="s">
         <v>578</v>
       </c>
@@ -25557,7 +25560,7 @@
       <c r="B47" s="50">
         <v>43</v>
       </c>
-      <c r="C47" s="160"/>
+      <c r="C47" s="164"/>
       <c r="D47" s="76" t="s">
         <v>579</v>
       </c>
@@ -25584,7 +25587,7 @@
       <c r="B48" s="50">
         <v>44</v>
       </c>
-      <c r="C48" s="160"/>
+      <c r="C48" s="164"/>
       <c r="D48" s="76" t="s">
         <v>581</v>
       </c>
@@ -25640,7 +25643,7 @@
       <c r="B50" s="50">
         <v>46</v>
       </c>
-      <c r="C50" s="158" t="s">
+      <c r="C50" s="162" t="s">
         <v>654</v>
       </c>
       <c r="D50" s="114" t="s">
@@ -25669,7 +25672,7 @@
       <c r="B51" s="50">
         <v>47</v>
       </c>
-      <c r="C51" s="158"/>
+      <c r="C51" s="162"/>
       <c r="D51" s="75" t="s">
         <v>652</v>
       </c>
@@ -25696,7 +25699,7 @@
       <c r="B52" s="50">
         <v>48</v>
       </c>
-      <c r="C52" s="158"/>
+      <c r="C52" s="162"/>
       <c r="D52" s="75" t="s">
         <v>653</v>
       </c>
@@ -25721,16 +25724,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C11:C26"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C39:C48"/>
-    <mergeCell ref="C27:C38"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25804,10 +25807,10 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="179" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="169" t="s">
         <v>663</v>
       </c>
       <c r="D2" s="63" t="s">
@@ -25815,7 +25818,7 @@
       </c>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
-      <c r="G2" s="171" t="s">
+      <c r="G2" s="169" t="s">
         <v>640</v>
       </c>
       <c r="H2" s="70"/>
@@ -25832,14 +25835,14 @@
     </row>
     <row r="3" spans="1:12" s="52" customFormat="1">
       <c r="A3" s="95"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="173"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="170"/>
       <c r="D3" s="63" t="s">
         <v>668</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
-      <c r="G3" s="173"/>
+      <c r="G3" s="170"/>
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
       <c r="J3" s="79"/>
@@ -25849,7 +25852,7 @@
       <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="167"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="78" t="s">
         <v>676</v>
       </c>
@@ -25874,7 +25877,7 @@
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="167"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="78" t="s">
         <v>492</v>
       </c>
@@ -25897,7 +25900,7 @@
     </row>
     <row r="6" spans="1:12" s="100" customFormat="1" ht="47.25">
       <c r="A6" s="96"/>
-      <c r="B6" s="167"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="149" t="s">
         <v>772</v>
       </c>
@@ -25920,7 +25923,7 @@
       <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="78" t="s">
         <v>493</v>
       </c>
@@ -25945,10 +25948,10 @@
       <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="179" t="s">
         <v>484</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="169" t="s">
         <v>489</v>
       </c>
       <c r="D8" s="63" t="s">
@@ -25956,7 +25959,7 @@
       </c>
       <c r="E8" s="63"/>
       <c r="F8" s="63"/>
-      <c r="G8" s="181" t="s">
+      <c r="G8" s="186" t="s">
         <v>725</v>
       </c>
       <c r="H8" s="70" t="s">
@@ -25970,14 +25973,14 @@
       <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="173"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="63" t="s">
         <v>586</v>
       </c>
       <c r="E9" s="63"/>
       <c r="F9" s="63"/>
-      <c r="G9" s="181"/>
+      <c r="G9" s="186"/>
       <c r="H9" s="70" t="s">
         <v>602</v>
       </c>
@@ -25989,8 +25992,8 @@
       <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="180"/>
+      <c r="C10" s="169" t="s">
         <v>661</v>
       </c>
       <c r="D10" s="76" t="s">
@@ -25998,7 +26001,7 @@
       </c>
       <c r="E10" s="147"/>
       <c r="F10" s="151"/>
-      <c r="G10" s="171" t="s">
+      <c r="G10" s="169" t="s">
         <v>725</v>
       </c>
       <c r="H10" s="70" t="s">
@@ -26010,14 +26013,14 @@
     </row>
     <row r="11" spans="1:12" s="100" customFormat="1">
       <c r="A11" s="96"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="172"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="187"/>
       <c r="D11" s="101" t="s">
         <v>665</v>
       </c>
       <c r="E11" s="146"/>
       <c r="F11" s="150"/>
-      <c r="G11" s="172"/>
+      <c r="G11" s="187"/>
       <c r="H11" s="98" t="s">
         <v>602</v>
       </c>
@@ -26027,14 +26030,14 @@
     </row>
     <row r="12" spans="1:12" s="100" customFormat="1">
       <c r="A12" s="96"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="172"/>
+      <c r="B12" s="180"/>
+      <c r="C12" s="187"/>
       <c r="D12" s="101" t="s">
         <v>606</v>
       </c>
       <c r="E12" s="146"/>
       <c r="F12" s="150"/>
-      <c r="G12" s="172"/>
+      <c r="G12" s="187"/>
       <c r="H12" s="98" t="s">
         <v>602</v>
       </c>
@@ -26044,14 +26047,14 @@
     </row>
     <row r="13" spans="1:12" s="100" customFormat="1">
       <c r="A13" s="96"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="172"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="187"/>
       <c r="D13" s="108" t="s">
         <v>720</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="112"/>
-      <c r="G13" s="172"/>
+      <c r="G13" s="187"/>
       <c r="H13" s="98" t="s">
         <v>602</v>
       </c>
@@ -26061,14 +26064,14 @@
     </row>
     <row r="14" spans="1:12" s="100" customFormat="1">
       <c r="A14" s="96"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="172"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="112" t="s">
         <v>737</v>
       </c>
       <c r="E14" s="112"/>
       <c r="F14" s="112"/>
-      <c r="G14" s="172"/>
+      <c r="G14" s="187"/>
       <c r="H14" s="98" t="s">
         <v>602</v>
       </c>
@@ -26078,8 +26081,8 @@
     </row>
     <row r="15" spans="1:12" s="100" customFormat="1">
       <c r="A15" s="96"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="177" t="s">
+      <c r="B15" s="180"/>
+      <c r="C15" s="171" t="s">
         <v>709</v>
       </c>
       <c r="D15" s="101" t="s">
@@ -26087,7 +26090,7 @@
       </c>
       <c r="E15" s="146"/>
       <c r="F15" s="150"/>
-      <c r="G15" s="177" t="s">
+      <c r="G15" s="171" t="s">
         <v>724</v>
       </c>
       <c r="H15" s="98" t="s">
@@ -26099,14 +26102,14 @@
     </row>
     <row r="16" spans="1:12" s="100" customFormat="1">
       <c r="A16" s="96"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="178"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="108" t="s">
         <v>722</v>
       </c>
       <c r="E16" s="112"/>
       <c r="F16" s="112"/>
-      <c r="G16" s="178"/>
+      <c r="G16" s="172"/>
       <c r="H16" s="98" t="s">
         <v>602</v>
       </c>
@@ -26116,14 +26119,14 @@
     </row>
     <row r="17" spans="1:11" s="100" customFormat="1">
       <c r="A17" s="96"/>
-      <c r="B17" s="167"/>
-      <c r="C17" s="178"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="108" t="s">
         <v>723</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="112"/>
-      <c r="G17" s="178"/>
+      <c r="G17" s="172"/>
       <c r="H17" s="98" t="s">
         <v>602</v>
       </c>
@@ -26133,14 +26136,14 @@
     </row>
     <row r="18" spans="1:11" s="100" customFormat="1">
       <c r="A18" s="96"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="178"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="112" t="s">
         <v>781</v>
       </c>
       <c r="E18" s="112"/>
       <c r="F18" s="112"/>
-      <c r="G18" s="178"/>
+      <c r="G18" s="172"/>
       <c r="H18" s="98" t="s">
         <v>602</v>
       </c>
@@ -26150,14 +26153,14 @@
     </row>
     <row r="19" spans="1:11" s="100" customFormat="1">
       <c r="A19" s="96"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="178"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="112" t="s">
         <v>780</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="112"/>
-      <c r="G19" s="178"/>
+      <c r="G19" s="172"/>
       <c r="H19" s="98" t="s">
         <v>602</v>
       </c>
@@ -26167,14 +26170,14 @@
     </row>
     <row r="20" spans="1:11" s="100" customFormat="1">
       <c r="A20" s="96"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="178"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="172"/>
       <c r="D20" s="112" t="s">
         <v>786</v>
       </c>
       <c r="E20" s="112"/>
       <c r="F20" s="112"/>
-      <c r="G20" s="178"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="98" t="s">
         <v>602</v>
       </c>
@@ -26186,8 +26189,8 @@
       <c r="A21" s="19">
         <v>10</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="180"/>
+      <c r="C21" s="169" t="s">
         <v>635</v>
       </c>
       <c r="D21" s="63" t="s">
@@ -26195,7 +26198,7 @@
       </c>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
-      <c r="G21" s="181" t="s">
+      <c r="G21" s="186" t="s">
         <v>642</v>
       </c>
       <c r="H21" s="70" t="s">
@@ -26209,14 +26212,14 @@
       <c r="A22" s="19">
         <v>11</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="172"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="187"/>
       <c r="D22" s="63" t="s">
         <v>583</v>
       </c>
       <c r="E22" s="63"/>
       <c r="F22" s="63"/>
-      <c r="G22" s="181"/>
+      <c r="G22" s="186"/>
       <c r="H22" s="70" t="s">
         <v>602</v>
       </c>
@@ -26228,14 +26231,14 @@
       <c r="A23" s="19">
         <v>12</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="172"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="63" t="s">
         <v>588</v>
       </c>
       <c r="E23" s="63"/>
       <c r="F23" s="63"/>
-      <c r="G23" s="181"/>
+      <c r="G23" s="186"/>
       <c r="H23" s="70" t="s">
         <v>602</v>
       </c>
@@ -26247,14 +26250,14 @@
       <c r="A24" s="19">
         <v>13</v>
       </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="173"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="170"/>
       <c r="D24" s="63" t="s">
         <v>584</v>
       </c>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
-      <c r="G24" s="181"/>
+      <c r="G24" s="186"/>
       <c r="H24" s="70" t="s">
         <v>602</v>
       </c>
@@ -26266,8 +26269,8 @@
       <c r="A25" s="19">
         <v>14</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="169" t="s">
+      <c r="B25" s="180"/>
+      <c r="C25" s="173" t="s">
         <v>636</v>
       </c>
       <c r="D25" s="63" t="s">
@@ -26289,8 +26292,8 @@
       <c r="A26" s="19">
         <v>15</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="170"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="175"/>
       <c r="D26" s="63" t="s">
         <v>767</v>
       </c>
@@ -26308,8 +26311,8 @@
       <c r="A27" s="19">
         <v>16</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="169" t="s">
+      <c r="B27" s="180"/>
+      <c r="C27" s="173" t="s">
         <v>558</v>
       </c>
       <c r="D27" s="64" t="s">
@@ -26331,8 +26334,8 @@
       <c r="A28" s="19">
         <v>17</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="170"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="64" t="s">
         <v>689</v>
       </c>
@@ -26350,7 +26353,7 @@
       <c r="A29" s="19">
         <v>18</v>
       </c>
-      <c r="B29" s="167"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="151" t="s">
         <v>559</v>
       </c>
@@ -26371,8 +26374,8 @@
     </row>
     <row r="30" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A30" s="96"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="174" t="s">
+      <c r="B30" s="180"/>
+      <c r="C30" s="183" t="s">
         <v>673</v>
       </c>
       <c r="D30" s="97" t="s">
@@ -26380,7 +26383,7 @@
       </c>
       <c r="E30" s="97"/>
       <c r="F30" s="97"/>
-      <c r="G30" s="183" t="s">
+      <c r="G30" s="166" t="s">
         <v>726</v>
       </c>
       <c r="H30" s="98" t="s">
@@ -26392,14 +26395,14 @@
     </row>
     <row r="31" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A31" s="96"/>
-      <c r="B31" s="167"/>
-      <c r="C31" s="175"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="97" t="s">
         <v>685</v>
       </c>
       <c r="E31" s="97"/>
       <c r="F31" s="97"/>
-      <c r="G31" s="184"/>
+      <c r="G31" s="167"/>
       <c r="H31" s="98" t="s">
         <v>602</v>
       </c>
@@ -26409,14 +26412,14 @@
     </row>
     <row r="32" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A32" s="96"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="176"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="185"/>
       <c r="D32" s="97" t="s">
         <v>681</v>
       </c>
       <c r="E32" s="97"/>
       <c r="F32" s="97"/>
-      <c r="G32" s="185"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="98" t="s">
         <v>602</v>
       </c>
@@ -26428,8 +26431,8 @@
       <c r="A33" s="19">
         <v>19</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="169" t="s">
+      <c r="B33" s="180"/>
+      <c r="C33" s="173" t="s">
         <v>671</v>
       </c>
       <c r="D33" s="64" t="s">
@@ -26451,8 +26454,8 @@
       <c r="A34" s="19">
         <v>20</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="170"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="175"/>
       <c r="D34" s="64" t="s">
         <v>590</v>
       </c>
@@ -26470,8 +26473,8 @@
       <c r="A35" s="19">
         <v>21</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="169" t="s">
+      <c r="B35" s="180"/>
+      <c r="C35" s="173" t="s">
         <v>672</v>
       </c>
       <c r="D35" s="64" t="s">
@@ -26493,8 +26496,8 @@
       <c r="A36" s="19">
         <v>22</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="180"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="174"/>
       <c r="D36" s="64" t="s">
         <v>692</v>
       </c>
@@ -26512,8 +26515,8 @@
       <c r="A37" s="19">
         <v>23</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="170"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="64" t="s">
         <v>593</v>
       </c>
@@ -26531,8 +26534,8 @@
       <c r="A38" s="19">
         <v>24</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="169" t="s">
+      <c r="B38" s="180"/>
+      <c r="C38" s="173" t="s">
         <v>575</v>
       </c>
       <c r="D38" s="64" t="s">
@@ -26554,8 +26557,8 @@
       <c r="A39" s="19">
         <v>25</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="180"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="174"/>
       <c r="D39" s="64" t="s">
         <v>592</v>
       </c>
@@ -26573,8 +26576,8 @@
       <c r="A40" s="19">
         <v>26</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="170"/>
+      <c r="B40" s="180"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="64" t="s">
         <v>594</v>
       </c>
@@ -26592,8 +26595,8 @@
       <c r="A41" s="19">
         <v>27</v>
       </c>
-      <c r="B41" s="167"/>
-      <c r="C41" s="169" t="s">
+      <c r="B41" s="180"/>
+      <c r="C41" s="173" t="s">
         <v>576</v>
       </c>
       <c r="D41" s="64" t="s">
@@ -26615,8 +26618,8 @@
       <c r="A42" s="19">
         <v>28</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="180"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="174"/>
       <c r="D42" s="64" t="s">
         <v>592</v>
       </c>
@@ -26634,8 +26637,8 @@
       <c r="A43" s="19">
         <v>29</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="64" t="s">
         <v>595</v>
       </c>
@@ -26653,8 +26656,8 @@
       <c r="A44" s="19">
         <v>30</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="169" t="s">
+      <c r="B44" s="180"/>
+      <c r="C44" s="173" t="s">
         <v>577</v>
       </c>
       <c r="D44" s="64" t="s">
@@ -26676,8 +26679,8 @@
       <c r="A45" s="19">
         <v>31</v>
       </c>
-      <c r="B45" s="167"/>
-      <c r="C45" s="180"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="174"/>
       <c r="D45" s="64" t="s">
         <v>592</v>
       </c>
@@ -26695,8 +26698,8 @@
       <c r="A46" s="19">
         <v>32</v>
       </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="170"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="175"/>
       <c r="D46" s="64" t="s">
         <v>596</v>
       </c>
@@ -26714,8 +26717,8 @@
       <c r="A47" s="19">
         <v>33</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="169" t="s">
+      <c r="B47" s="180"/>
+      <c r="C47" s="173" t="s">
         <v>578</v>
       </c>
       <c r="D47" s="64" t="s">
@@ -26737,8 +26740,8 @@
       <c r="A48" s="19">
         <v>34</v>
       </c>
-      <c r="B48" s="167"/>
-      <c r="C48" s="180"/>
+      <c r="B48" s="180"/>
+      <c r="C48" s="174"/>
       <c r="D48" s="64" t="s">
         <v>592</v>
       </c>
@@ -26756,8 +26759,8 @@
       <c r="A49" s="19">
         <v>35</v>
       </c>
-      <c r="B49" s="167"/>
-      <c r="C49" s="170"/>
+      <c r="B49" s="180"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="64" t="s">
         <v>597</v>
       </c>
@@ -26775,8 +26778,8 @@
       <c r="A50" s="19">
         <v>36</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="169" t="s">
+      <c r="B50" s="180"/>
+      <c r="C50" s="173" t="s">
         <v>579</v>
       </c>
       <c r="D50" s="64" t="s">
@@ -26784,7 +26787,7 @@
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
-      <c r="G50" s="186" t="s">
+      <c r="G50" s="176" t="s">
         <v>644</v>
       </c>
       <c r="H50" s="70" t="s">
@@ -26798,14 +26801,14 @@
       <c r="A51" s="19">
         <v>37</v>
       </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="180"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="174"/>
       <c r="D51" s="64" t="s">
         <v>694</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
-      <c r="G51" s="188"/>
+      <c r="G51" s="177"/>
       <c r="H51" s="70" t="s">
         <v>602</v>
       </c>
@@ -26817,14 +26820,14 @@
       <c r="A52" s="19">
         <v>38</v>
       </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="180"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="174"/>
       <c r="D52" s="64" t="s">
         <v>591</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
-      <c r="G52" s="188"/>
+      <c r="G52" s="177"/>
       <c r="H52" s="70" t="s">
         <v>602</v>
       </c>
@@ -26836,14 +26839,14 @@
       <c r="A53" s="19">
         <v>39</v>
       </c>
-      <c r="B53" s="167"/>
-      <c r="C53" s="170"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="175"/>
       <c r="D53" s="64" t="s">
         <v>580</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
-      <c r="G53" s="187"/>
+      <c r="G53" s="178"/>
       <c r="H53" s="70" t="s">
         <v>602</v>
       </c>
@@ -26855,7 +26858,7 @@
       <c r="A54" s="130">
         <v>39</v>
       </c>
-      <c r="B54" s="167"/>
+      <c r="B54" s="180"/>
       <c r="C54" s="128" t="s">
         <v>733</v>
       </c>
@@ -26876,7 +26879,7 @@
       <c r="A55" s="19">
         <v>39</v>
       </c>
-      <c r="B55" s="168"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="91" t="s">
         <v>784</v>
       </c>
@@ -26897,7 +26900,7 @@
       <c r="A56" s="19">
         <v>40</v>
       </c>
-      <c r="B56" s="166" t="s">
+      <c r="B56" s="179" t="s">
         <v>483</v>
       </c>
       <c r="C56" s="78" t="s">
@@ -26922,7 +26925,7 @@
       <c r="A57" s="19">
         <v>41</v>
       </c>
-      <c r="B57" s="167"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="78" t="s">
         <v>425</v>
       </c>
@@ -26945,7 +26948,7 @@
       <c r="A58" s="19">
         <v>42</v>
       </c>
-      <c r="B58" s="167"/>
+      <c r="B58" s="180"/>
       <c r="C58" s="127" t="s">
         <v>727</v>
       </c>
@@ -26966,8 +26969,8 @@
     </row>
     <row r="59" spans="1:11" s="100" customFormat="1">
       <c r="A59" s="96"/>
-      <c r="B59" s="167"/>
-      <c r="C59" s="177" t="s">
+      <c r="B59" s="180"/>
+      <c r="C59" s="171" t="s">
         <v>746</v>
       </c>
       <c r="D59" s="102" t="s">
@@ -26975,7 +26978,7 @@
       </c>
       <c r="E59" s="146"/>
       <c r="F59" s="150"/>
-      <c r="G59" s="183" t="s">
+      <c r="G59" s="166" t="s">
         <v>765</v>
       </c>
       <c r="H59" s="99"/>
@@ -26987,14 +26990,14 @@
     </row>
     <row r="60" spans="1:11" s="100" customFormat="1">
       <c r="A60" s="96"/>
-      <c r="B60" s="167"/>
-      <c r="C60" s="178"/>
+      <c r="B60" s="180"/>
+      <c r="C60" s="172"/>
       <c r="D60" s="135" t="s">
         <v>715</v>
       </c>
       <c r="E60" s="112"/>
       <c r="F60" s="112"/>
-      <c r="G60" s="184"/>
+      <c r="G60" s="167"/>
       <c r="H60" s="99"/>
       <c r="I60" s="99" t="s">
         <v>602</v>
@@ -27004,14 +27007,14 @@
     </row>
     <row r="61" spans="1:11" s="100" customFormat="1">
       <c r="A61" s="96"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="178"/>
+      <c r="B61" s="180"/>
+      <c r="C61" s="172"/>
       <c r="D61" s="112" t="s">
         <v>749</v>
       </c>
       <c r="E61" s="112"/>
       <c r="F61" s="112"/>
-      <c r="G61" s="184"/>
+      <c r="G61" s="167"/>
       <c r="H61" s="99"/>
       <c r="I61" s="99" t="s">
         <v>602</v>
@@ -27021,14 +27024,14 @@
     </row>
     <row r="62" spans="1:11" s="100" customFormat="1">
       <c r="A62" s="96"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="178"/>
+      <c r="B62" s="180"/>
+      <c r="C62" s="172"/>
       <c r="D62" s="112" t="s">
         <v>750</v>
       </c>
       <c r="E62" s="112"/>
       <c r="F62" s="112"/>
-      <c r="G62" s="185"/>
+      <c r="G62" s="168"/>
       <c r="H62" s="99"/>
       <c r="I62" s="99" t="s">
         <v>602</v>
@@ -27038,8 +27041,8 @@
     </row>
     <row r="63" spans="1:11" s="100" customFormat="1">
       <c r="A63" s="96"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="178"/>
+      <c r="B63" s="180"/>
+      <c r="C63" s="172"/>
       <c r="D63" s="108" t="s">
         <v>720</v>
       </c>
@@ -27055,8 +27058,8 @@
     </row>
     <row r="64" spans="1:11" s="100" customFormat="1">
       <c r="A64" s="96"/>
-      <c r="B64" s="167"/>
-      <c r="C64" s="179"/>
+      <c r="B64" s="180"/>
+      <c r="C64" s="188"/>
       <c r="D64" s="112" t="s">
         <v>737</v>
       </c>
@@ -27074,7 +27077,7 @@
       <c r="A65" s="19">
         <v>43</v>
       </c>
-      <c r="B65" s="167"/>
+      <c r="B65" s="180"/>
       <c r="C65" s="78" t="s">
         <v>489</v>
       </c>
@@ -27097,8 +27100,8 @@
       <c r="A66" s="19">
         <v>44</v>
       </c>
-      <c r="B66" s="167"/>
-      <c r="C66" s="169" t="s">
+      <c r="B66" s="180"/>
+      <c r="C66" s="173" t="s">
         <v>558</v>
       </c>
       <c r="D66" s="64" t="s">
@@ -27120,8 +27123,8 @@
       <c r="A67" s="19">
         <v>45</v>
       </c>
-      <c r="B67" s="167"/>
-      <c r="C67" s="170"/>
+      <c r="B67" s="180"/>
+      <c r="C67" s="175"/>
       <c r="D67" s="64" t="s">
         <v>601</v>
       </c>
@@ -27137,8 +27140,8 @@
     </row>
     <row r="68" spans="1:11" s="100" customFormat="1">
       <c r="A68" s="96"/>
-      <c r="B68" s="167"/>
-      <c r="C68" s="174" t="s">
+      <c r="B68" s="180"/>
+      <c r="C68" s="183" t="s">
         <v>673</v>
       </c>
       <c r="D68" s="97" t="s">
@@ -27146,7 +27149,7 @@
       </c>
       <c r="E68" s="97"/>
       <c r="F68" s="97"/>
-      <c r="G68" s="183" t="s">
+      <c r="G68" s="166" t="s">
         <v>730</v>
       </c>
       <c r="H68" s="98" t="s">
@@ -27158,14 +27161,14 @@
     </row>
     <row r="69" spans="1:11" s="100" customFormat="1" ht="47.25">
       <c r="A69" s="96"/>
-      <c r="B69" s="167"/>
-      <c r="C69" s="175"/>
+      <c r="B69" s="180"/>
+      <c r="C69" s="184"/>
       <c r="D69" s="97" t="s">
         <v>699</v>
       </c>
       <c r="E69" s="97"/>
       <c r="F69" s="97"/>
-      <c r="G69" s="184"/>
+      <c r="G69" s="167"/>
       <c r="H69" s="98" t="s">
         <v>602</v>
       </c>
@@ -27175,14 +27178,14 @@
     </row>
     <row r="70" spans="1:11" s="100" customFormat="1" ht="31.5">
       <c r="A70" s="96"/>
-      <c r="B70" s="167"/>
-      <c r="C70" s="176"/>
+      <c r="B70" s="180"/>
+      <c r="C70" s="185"/>
       <c r="D70" s="97" t="s">
         <v>681</v>
       </c>
       <c r="E70" s="97"/>
       <c r="F70" s="97"/>
-      <c r="G70" s="185"/>
+      <c r="G70" s="168"/>
       <c r="H70" s="98" t="s">
         <v>602</v>
       </c>
@@ -27194,8 +27197,8 @@
       <c r="A71" s="19">
         <v>46</v>
       </c>
-      <c r="B71" s="167"/>
-      <c r="C71" s="169" t="s">
+      <c r="B71" s="180"/>
+      <c r="C71" s="173" t="s">
         <v>575</v>
       </c>
       <c r="D71" s="64" t="s">
@@ -27217,8 +27220,8 @@
       <c r="A72" s="19">
         <v>47</v>
       </c>
-      <c r="B72" s="167"/>
-      <c r="C72" s="170"/>
+      <c r="B72" s="180"/>
+      <c r="C72" s="175"/>
       <c r="D72" s="64" t="s">
         <v>594</v>
       </c>
@@ -27236,8 +27239,8 @@
       <c r="A73" s="19">
         <v>48</v>
       </c>
-      <c r="B73" s="167"/>
-      <c r="C73" s="169" t="s">
+      <c r="B73" s="180"/>
+      <c r="C73" s="173" t="s">
         <v>576</v>
       </c>
       <c r="D73" s="64" t="s">
@@ -27259,8 +27262,8 @@
       <c r="A74" s="19">
         <v>49</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="C74" s="170"/>
+      <c r="B74" s="180"/>
+      <c r="C74" s="175"/>
       <c r="D74" s="64" t="s">
         <v>595</v>
       </c>
@@ -27278,8 +27281,8 @@
       <c r="A75" s="19">
         <v>50</v>
       </c>
-      <c r="B75" s="167"/>
-      <c r="C75" s="169" t="s">
+      <c r="B75" s="180"/>
+      <c r="C75" s="173" t="s">
         <v>577</v>
       </c>
       <c r="D75" s="64" t="s">
@@ -27301,8 +27304,8 @@
       <c r="A76" s="19">
         <v>51</v>
       </c>
-      <c r="B76" s="167"/>
-      <c r="C76" s="170"/>
+      <c r="B76" s="180"/>
+      <c r="C76" s="175"/>
       <c r="D76" s="64" t="s">
         <v>596</v>
       </c>
@@ -27320,8 +27323,8 @@
       <c r="A77" s="19">
         <v>52</v>
       </c>
-      <c r="B77" s="167"/>
-      <c r="C77" s="169" t="s">
+      <c r="B77" s="180"/>
+      <c r="C77" s="173" t="s">
         <v>578</v>
       </c>
       <c r="D77" s="64" t="s">
@@ -27343,8 +27346,8 @@
       <c r="A78" s="19">
         <v>53</v>
       </c>
-      <c r="B78" s="167"/>
-      <c r="C78" s="170"/>
+      <c r="B78" s="180"/>
+      <c r="C78" s="175"/>
       <c r="D78" s="64" t="s">
         <v>597</v>
       </c>
@@ -27362,8 +27365,8 @@
       <c r="A79" s="19">
         <v>54</v>
       </c>
-      <c r="B79" s="167"/>
-      <c r="C79" s="169" t="s">
+      <c r="B79" s="180"/>
+      <c r="C79" s="173" t="s">
         <v>579</v>
       </c>
       <c r="D79" s="64" t="s">
@@ -27371,7 +27374,7 @@
       </c>
       <c r="E79" s="64"/>
       <c r="F79" s="64"/>
-      <c r="G79" s="186" t="s">
+      <c r="G79" s="176" t="s">
         <v>646</v>
       </c>
       <c r="H79" s="71"/>
@@ -27385,14 +27388,14 @@
       <c r="A80" s="19">
         <v>55</v>
       </c>
-      <c r="B80" s="167"/>
-      <c r="C80" s="170"/>
+      <c r="B80" s="180"/>
+      <c r="C80" s="175"/>
       <c r="D80" s="64" t="s">
         <v>580</v>
       </c>
       <c r="E80" s="64"/>
       <c r="F80" s="64"/>
-      <c r="G80" s="187"/>
+      <c r="G80" s="178"/>
       <c r="H80" s="71"/>
       <c r="I80" s="71" t="s">
         <v>602</v>
@@ -27404,7 +27407,7 @@
       <c r="A81" s="19">
         <v>56</v>
       </c>
-      <c r="B81" s="168"/>
+      <c r="B81" s="181"/>
       <c r="C81" s="91" t="s">
         <v>581</v>
       </c>
@@ -27427,7 +27430,7 @@
       <c r="A82" s="19">
         <v>57</v>
       </c>
-      <c r="B82" s="166" t="s">
+      <c r="B82" s="179" t="s">
         <v>485</v>
       </c>
       <c r="C82" s="78" t="s">
@@ -27452,7 +27455,7 @@
       <c r="A83" s="19">
         <v>58</v>
       </c>
-      <c r="B83" s="167"/>
+      <c r="B83" s="180"/>
       <c r="C83" s="78" t="s">
         <v>425</v>
       </c>
@@ -27475,8 +27478,8 @@
       <c r="A84" s="19">
         <v>59</v>
       </c>
-      <c r="B84" s="167"/>
-      <c r="C84" s="169" t="s">
+      <c r="B84" s="180"/>
+      <c r="C84" s="173" t="s">
         <v>671</v>
       </c>
       <c r="D84" s="64" t="s">
@@ -27498,8 +27501,8 @@
       <c r="A85" s="19">
         <v>60</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="170"/>
+      <c r="B85" s="180"/>
+      <c r="C85" s="175"/>
       <c r="D85" s="64" t="s">
         <v>590</v>
       </c>
@@ -27517,8 +27520,8 @@
       <c r="A86" s="19">
         <v>61</v>
       </c>
-      <c r="B86" s="167"/>
-      <c r="C86" s="169" t="s">
+      <c r="B86" s="180"/>
+      <c r="C86" s="173" t="s">
         <v>672</v>
       </c>
       <c r="D86" s="64" t="s">
@@ -27540,8 +27543,8 @@
       <c r="A87" s="19">
         <v>62</v>
       </c>
-      <c r="B87" s="167"/>
-      <c r="C87" s="180"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="174"/>
       <c r="D87" s="64" t="s">
         <v>599</v>
       </c>
@@ -27559,8 +27562,8 @@
       <c r="A88" s="19">
         <v>63</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="170"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="175"/>
       <c r="D88" s="64" t="s">
         <v>600</v>
       </c>
@@ -27578,8 +27581,8 @@
       <c r="A89" s="19">
         <v>64</v>
       </c>
-      <c r="B89" s="167"/>
-      <c r="C89" s="169" t="s">
+      <c r="B89" s="180"/>
+      <c r="C89" s="173" t="s">
         <v>575</v>
       </c>
       <c r="D89" s="64" t="s">
@@ -27601,8 +27604,8 @@
       <c r="A90" s="19">
         <v>65</v>
       </c>
-      <c r="B90" s="167"/>
-      <c r="C90" s="170"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="175"/>
       <c r="D90" s="64" t="s">
         <v>594</v>
       </c>
@@ -27620,8 +27623,8 @@
       <c r="A91" s="19">
         <v>66</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="169" t="s">
+      <c r="B91" s="180"/>
+      <c r="C91" s="173" t="s">
         <v>576</v>
       </c>
       <c r="D91" s="64" t="s">
@@ -27643,8 +27646,8 @@
       <c r="A92" s="19">
         <v>67</v>
       </c>
-      <c r="B92" s="167"/>
-      <c r="C92" s="170"/>
+      <c r="B92" s="180"/>
+      <c r="C92" s="175"/>
       <c r="D92" s="64" t="s">
         <v>595</v>
       </c>
@@ -27662,8 +27665,8 @@
       <c r="A93" s="19">
         <v>68</v>
       </c>
-      <c r="B93" s="167"/>
-      <c r="C93" s="169" t="s">
+      <c r="B93" s="180"/>
+      <c r="C93" s="173" t="s">
         <v>577</v>
       </c>
       <c r="D93" s="64" t="s">
@@ -27685,8 +27688,8 @@
       <c r="A94" s="19">
         <v>69</v>
       </c>
-      <c r="B94" s="167"/>
-      <c r="C94" s="170"/>
+      <c r="B94" s="180"/>
+      <c r="C94" s="175"/>
       <c r="D94" s="64" t="s">
         <v>596</v>
       </c>
@@ -27704,8 +27707,8 @@
       <c r="A95" s="19">
         <v>70</v>
       </c>
-      <c r="B95" s="167"/>
-      <c r="C95" s="169" t="s">
+      <c r="B95" s="180"/>
+      <c r="C95" s="173" t="s">
         <v>578</v>
       </c>
       <c r="D95" s="64" t="s">
@@ -27727,8 +27730,8 @@
       <c r="A96" s="19">
         <v>71</v>
       </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="170"/>
+      <c r="B96" s="180"/>
+      <c r="C96" s="175"/>
       <c r="D96" s="64" t="s">
         <v>597</v>
       </c>
@@ -27746,8 +27749,8 @@
       <c r="A97" s="19">
         <v>72</v>
       </c>
-      <c r="B97" s="167"/>
-      <c r="C97" s="169" t="s">
+      <c r="B97" s="180"/>
+      <c r="C97" s="173" t="s">
         <v>579</v>
       </c>
       <c r="D97" s="64" t="s">
@@ -27755,7 +27758,7 @@
       </c>
       <c r="E97" s="64"/>
       <c r="F97" s="64"/>
-      <c r="G97" s="186" t="s">
+      <c r="G97" s="176" t="s">
         <v>646</v>
       </c>
       <c r="H97" s="71"/>
@@ -27769,14 +27772,14 @@
       <c r="A98" s="19">
         <v>73</v>
       </c>
-      <c r="B98" s="167"/>
-      <c r="C98" s="170"/>
+      <c r="B98" s="180"/>
+      <c r="C98" s="175"/>
       <c r="D98" s="64" t="s">
         <v>580</v>
       </c>
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
-      <c r="G98" s="187"/>
+      <c r="G98" s="178"/>
       <c r="H98" s="71"/>
       <c r="I98" s="71"/>
       <c r="J98" s="71" t="s">
@@ -27788,7 +27791,7 @@
       <c r="A99" s="19">
         <v>74</v>
       </c>
-      <c r="B99" s="168"/>
+      <c r="B99" s="181"/>
       <c r="C99" s="91" t="s">
         <v>581</v>
       </c>
@@ -27809,10 +27812,10 @@
       <c r="A100" s="19">
         <v>75</v>
       </c>
-      <c r="B100" s="166" t="s">
+      <c r="B100" s="179" t="s">
         <v>486</v>
       </c>
-      <c r="C100" s="169" t="s">
+      <c r="C100" s="173" t="s">
         <v>650</v>
       </c>
       <c r="D100" s="64" t="s">
@@ -27830,8 +27833,8 @@
     </row>
     <row r="101" spans="1:11" s="52" customFormat="1" ht="31.5">
       <c r="A101" s="95"/>
-      <c r="B101" s="167"/>
-      <c r="C101" s="180"/>
+      <c r="B101" s="180"/>
+      <c r="C101" s="174"/>
       <c r="D101" s="64" t="s">
         <v>741</v>
       </c>
@@ -27845,8 +27848,8 @@
     </row>
     <row r="102" spans="1:11" s="52" customFormat="1">
       <c r="A102" s="95"/>
-      <c r="B102" s="168"/>
-      <c r="C102" s="170"/>
+      <c r="B102" s="181"/>
+      <c r="C102" s="175"/>
       <c r="D102" s="64" t="s">
         <v>740</v>
       </c>
@@ -27865,12 +27868,50 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B56:B81"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B82:B99"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B8:B55"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G68:G70"/>
     <mergeCell ref="C100:C102"/>
     <mergeCell ref="B100:B102"/>
     <mergeCell ref="G95:G96"/>
@@ -27887,50 +27928,12 @@
     <mergeCell ref="G91:G92"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B82:B99"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B8:B55"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B56:B81"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -27942,7 +27945,7 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -28295,6 +28298,9 @@
     <row r="23" spans="1:7">
       <c r="A23" s="15" t="s">
         <v>648</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:7">
